--- a/report/ml_perform_crossval_raw_samp_2022-11-24.xlsx
+++ b/report/ml_perform_crossval_raw_samp_2022-11-24.xlsx
@@ -495,34 +495,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.018227815628052</v>
+        <v>3.143451452255249</v>
       </c>
       <c r="C2">
-        <v>0.1894500255584717</v>
+        <v>0.1772477626800537</v>
       </c>
       <c r="D2">
-        <v>0.05394778135585005</v>
+        <v>0.06936266690709525</v>
       </c>
       <c r="E2">
-        <v>-0.0246971607808186</v>
+        <v>-0.04325329798002886</v>
       </c>
       <c r="F2">
-        <v>0.007668824308477548</v>
+        <v>0.01195512346590867</v>
       </c>
       <c r="G2">
-        <v>-0.001548924996262011</v>
+        <v>-0.005970519502295734</v>
       </c>
       <c r="H2">
-        <v>0.8925141197608149</v>
+        <v>0.8354647268965469</v>
       </c>
       <c r="I2">
-        <v>0.9776732570972746</v>
+        <v>0.9135191814290525</v>
       </c>
       <c r="J2">
-        <v>0.9450790839849208</v>
+        <v>0.9142383494642466</v>
       </c>
       <c r="K2">
-        <v>0.9895376870634585</v>
+        <v>0.9561876698482537</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -531,7 +531,7 @@
         <v>18</v>
       </c>
       <c r="N2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O2">
         <v>8519</v>
@@ -542,34 +542,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.8763108253479</v>
+        <v>2.867240428924561</v>
       </c>
       <c r="C3">
-        <v>0.2842741012573242</v>
+        <v>0.2298035621643066</v>
       </c>
       <c r="D3">
-        <v>0.05805774979804315</v>
+        <v>0.07378919370600902</v>
       </c>
       <c r="E3">
-        <v>-0.02397492697534835</v>
+        <v>-0.04225535240248933</v>
       </c>
       <c r="F3">
-        <v>0.008568970421181077</v>
+        <v>0.01350750858389837</v>
       </c>
       <c r="G3">
-        <v>-0.001491180782724016</v>
+        <v>-0.005770825512659238</v>
       </c>
       <c r="H3">
-        <v>0.8722671193765967</v>
+        <v>0.8027052156829498</v>
       </c>
       <c r="I3">
-        <v>0.9788367920299671</v>
+        <v>0.9176626038163715</v>
       </c>
       <c r="J3">
-        <v>0.9349825891860362</v>
+        <v>0.8972430949824455</v>
       </c>
       <c r="K3">
-        <v>0.9900960355404481</v>
+        <v>0.9583216428013011</v>
       </c>
       <c r="L3" t="s">
         <v>15</v>
@@ -578,7 +578,7 @@
         <v>18</v>
       </c>
       <c r="N3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O3">
         <v>8519</v>
@@ -589,34 +589,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.377919435501099</v>
+        <v>2.449068546295166</v>
       </c>
       <c r="C4">
-        <v>0.2094378471374512</v>
+        <v>0.1525888442993164</v>
       </c>
       <c r="D4">
-        <v>0.05683286424005006</v>
+        <v>0.07068549818038086</v>
       </c>
       <c r="E4">
-        <v>-0.02518838027204458</v>
+        <v>-0.04337618587110399</v>
       </c>
       <c r="F4">
-        <v>0.008138993633315999</v>
+        <v>0.01241729576919704</v>
       </c>
       <c r="G4">
-        <v>-0.001572422248387748</v>
+        <v>-0.005887483485098526</v>
       </c>
       <c r="H4">
-        <v>0.8815741319995267</v>
+        <v>0.8179649963292238</v>
       </c>
       <c r="I4">
-        <v>0.9775305739389875</v>
+        <v>0.9159960308120411</v>
       </c>
       <c r="J4">
-        <v>0.9394770443296663</v>
+        <v>0.904971503236797</v>
       </c>
       <c r="K4">
-        <v>0.9895552181931011</v>
+        <v>0.95749944454506</v>
       </c>
       <c r="L4" t="s">
         <v>15</v>
@@ -625,7 +625,7 @@
         <v>18</v>
       </c>
       <c r="N4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O4">
         <v>8519</v>
@@ -636,34 +636,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.507578372955322</v>
+        <v>2.501757621765137</v>
       </c>
       <c r="C5">
-        <v>0.1605427265167236</v>
+        <v>0.1446082592010498</v>
       </c>
       <c r="D5">
-        <v>0.05321436553802931</v>
+        <v>0.06820908200139277</v>
       </c>
       <c r="E5">
-        <v>-0.02476565964242628</v>
+        <v>-0.04329840969481735</v>
       </c>
       <c r="F5">
-        <v>0.007460513283750845</v>
+        <v>0.0118311356399176</v>
       </c>
       <c r="G5">
-        <v>-0.001560367581487363</v>
+        <v>-0.005927165597063198</v>
       </c>
       <c r="H5">
-        <v>0.8952842173196749</v>
+        <v>0.8359932602109388</v>
       </c>
       <c r="I5">
-        <v>0.9775218978976743</v>
+        <v>0.9143333273283277</v>
       </c>
       <c r="J5">
-        <v>0.9468467413683724</v>
+        <v>0.9146968939241938</v>
       </c>
       <c r="K5">
-        <v>0.9894820231064804</v>
+        <v>0.9566763527147225</v>
       </c>
       <c r="L5" t="s">
         <v>15</v>
@@ -672,7 +672,7 @@
         <v>18</v>
       </c>
       <c r="N5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O5">
         <v>8519</v>
@@ -683,34 +683,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.279682636260986</v>
+        <v>2.342713594436646</v>
       </c>
       <c r="C6">
-        <v>0.1984696388244629</v>
+        <v>0.1492023468017578</v>
       </c>
       <c r="D6">
-        <v>0.05661727493308896</v>
+        <v>0.07034523654757159</v>
       </c>
       <c r="E6">
-        <v>-0.02514046835263527</v>
+        <v>-0.04345134352919007</v>
       </c>
       <c r="F6">
-        <v>0.008030525129154076</v>
+        <v>0.01165583301157772</v>
       </c>
       <c r="G6">
-        <v>-0.001608260912643971</v>
+        <v>-0.005978248135316036</v>
       </c>
       <c r="H6">
-        <v>0.8855162251064</v>
+        <v>0.8259416826241915</v>
       </c>
       <c r="I6">
-        <v>0.9769251481832973</v>
+        <v>0.9151782612603206</v>
       </c>
       <c r="J6">
-        <v>0.9413119172571071</v>
+        <v>0.908936286964377</v>
       </c>
       <c r="K6">
-        <v>0.9892187038366884</v>
+        <v>0.9570641988944465</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
@@ -719,7 +719,7 @@
         <v>18</v>
       </c>
       <c r="N6">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O6">
         <v>8519</v>
@@ -730,34 +730,34 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>0.3669958114624023</v>
+        <v>0.3051891326904297</v>
       </c>
       <c r="C7">
-        <v>0.005978107452392578</v>
+        <v>0.00698089599609375</v>
       </c>
       <c r="D7">
-        <v>0.1209839125397219</v>
+        <v>0.1311497395927108</v>
       </c>
       <c r="E7">
-        <v>-0.1088218652137421</v>
+        <v>-0.1195130104289932</v>
       </c>
       <c r="F7">
-        <v>0.02170045130033819</v>
+        <v>0.02689144339225695</v>
       </c>
       <c r="G7">
-        <v>-0.0181384177542438</v>
+        <v>-0.0231280184573896</v>
       </c>
       <c r="H7">
-        <v>0.6958474968547717</v>
+        <v>0.6299000177364754</v>
       </c>
       <c r="I7">
-        <v>0.7385465462572169</v>
+        <v>0.6649990059742774</v>
       </c>
       <c r="J7">
-        <v>0.8440681684493325</v>
+        <v>0.7985924262794656</v>
       </c>
       <c r="K7">
-        <v>0.8722903413179481</v>
+        <v>0.8223164947082557</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -766,7 +766,7 @@
         <v>18</v>
       </c>
       <c r="N7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O7">
         <v>8519</v>
@@ -777,34 +777,34 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0.3336172103881836</v>
+        <v>0.3117580413818359</v>
       </c>
       <c r="C8">
-        <v>0.00598454475402832</v>
+        <v>0.01699686050415039</v>
       </c>
       <c r="D8">
-        <v>0.1234506707491019</v>
+        <v>0.1344216231691459</v>
       </c>
       <c r="E8">
-        <v>-0.1065031959523558</v>
+        <v>-0.1220579546924035</v>
       </c>
       <c r="F8">
-        <v>0.02302759037119349</v>
+        <v>0.02846832204577967</v>
       </c>
       <c r="G8">
-        <v>-0.0174634189521166</v>
+        <v>-0.0240948580054984</v>
       </c>
       <c r="H8">
-        <v>0.6567405058771489</v>
+        <v>0.5841830176894534</v>
       </c>
       <c r="I8">
-        <v>0.7521548215794982</v>
+        <v>0.6562176650056439</v>
       </c>
       <c r="J8">
-        <v>0.814589923936564</v>
+        <v>0.7657325744030361</v>
       </c>
       <c r="K8">
-        <v>0.8792096388690018</v>
+        <v>0.8171467060179489</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -813,7 +813,7 @@
         <v>18</v>
       </c>
       <c r="N8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O8">
         <v>8519</v>
@@ -824,34 +824,34 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>0.3460738658905029</v>
+        <v>0.3038747310638428</v>
       </c>
       <c r="C9">
-        <v>0.00498652458190918</v>
+        <v>0.01703000068664551</v>
       </c>
       <c r="D9">
-        <v>0.1246082072985479</v>
+        <v>0.1306539538545301</v>
       </c>
       <c r="E9">
-        <v>-0.1100945203925872</v>
+        <v>-0.1243811284529808</v>
       </c>
       <c r="F9">
-        <v>0.02384777617675638</v>
+        <v>0.02638884782045356</v>
       </c>
       <c r="G9">
-        <v>-0.01863855172937764</v>
+        <v>-0.02483500916869104</v>
       </c>
       <c r="H9">
-        <v>0.6530045702391409</v>
+        <v>0.6131449150321362</v>
       </c>
       <c r="I9">
-        <v>0.7336608786876341</v>
+        <v>0.6456483741704309</v>
       </c>
       <c r="J9">
-        <v>0.8147020873429833</v>
+        <v>0.7864376631358345</v>
       </c>
       <c r="K9">
-        <v>0.8687570048788296</v>
+        <v>0.8106074215961601</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -860,7 +860,7 @@
         <v>18</v>
       </c>
       <c r="N9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O9">
         <v>8519</v>
@@ -871,34 +871,34 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>0.3145406246185303</v>
+        <v>0.311866283416748</v>
       </c>
       <c r="C10">
-        <v>0.006011724472045898</v>
+        <v>0.006018161773681641</v>
       </c>
       <c r="D10">
-        <v>0.1208388186472411</v>
+        <v>0.1337090703888832</v>
       </c>
       <c r="E10">
-        <v>-0.1074758800976582</v>
+        <v>-0.12202554336286</v>
       </c>
       <c r="F10">
-        <v>0.02228314934303723</v>
+        <v>0.02784001028753099</v>
       </c>
       <c r="G10">
-        <v>-0.01783807407471483</v>
+        <v>-0.02399860856866411</v>
       </c>
       <c r="H10">
-        <v>0.6872336613727497</v>
+        <v>0.6140734531394755</v>
       </c>
       <c r="I10">
-        <v>0.7430310299204734</v>
+        <v>0.6531426512115692</v>
       </c>
       <c r="J10">
-        <v>0.8378651632992916</v>
+        <v>0.7886836829441136</v>
       </c>
       <c r="K10">
-        <v>0.874167993508113</v>
+        <v>0.8152221035380643</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -907,7 +907,7 @@
         <v>18</v>
       </c>
       <c r="N10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O10">
         <v>8519</v>
@@ -918,34 +918,34 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>0.3386449813842773</v>
+        <v>0.313908576965332</v>
       </c>
       <c r="C11">
-        <v>0.005983829498291016</v>
+        <v>0.006003856658935547</v>
       </c>
       <c r="D11">
-        <v>0.1215185731178413</v>
+        <v>0.1349597100377307</v>
       </c>
       <c r="E11">
-        <v>-0.1073050397158407</v>
+        <v>-0.1239110258731998</v>
       </c>
       <c r="F11">
-        <v>0.02224069529644018</v>
+        <v>0.02890794566129854</v>
       </c>
       <c r="G11">
-        <v>-0.01768537829629165</v>
+        <v>-0.02472217826232502</v>
       </c>
       <c r="H11">
-        <v>0.6829349621793642</v>
+        <v>0.5683132749414839</v>
       </c>
       <c r="I11">
-        <v>0.7462554239172767</v>
+        <v>0.6492319993787179</v>
       </c>
       <c r="J11">
-        <v>0.8331491886584789</v>
+        <v>0.7568670137017854</v>
       </c>
       <c r="K11">
-        <v>0.8764522296046493</v>
+        <v>0.8124952775471008</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
@@ -954,7 +954,7 @@
         <v>18</v>
       </c>
       <c r="N11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O11">
         <v>8519</v>
@@ -965,34 +965,34 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>1.25821852684021</v>
+        <v>1.181835651397705</v>
       </c>
       <c r="C12">
-        <v>0.2016394138336182</v>
+        <v>0.1836628913879395</v>
       </c>
       <c r="D12">
-        <v>0.1699172735820117</v>
+        <v>0.1690928870670462</v>
       </c>
       <c r="E12">
-        <v>-0.1582934866095382</v>
+        <v>-0.1594999529746021</v>
       </c>
       <c r="F12">
-        <v>0.04371664416685122</v>
+        <v>0.0427666518026109</v>
       </c>
       <c r="G12">
-        <v>-0.03859716850014961</v>
+        <v>-0.03908189397470134</v>
       </c>
       <c r="H12">
-        <v>0.3872695747922152</v>
+        <v>0.41141362913327</v>
       </c>
       <c r="I12">
-        <v>0.4436470068236672</v>
+        <v>0.4339128812935682</v>
       </c>
       <c r="J12">
-        <v>0.6243685847836172</v>
+        <v>0.6450872204454658</v>
       </c>
       <c r="K12">
-        <v>0.6690446907606362</v>
+        <v>0.6616257822116463</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
@@ -1001,7 +1001,7 @@
         <v>18</v>
       </c>
       <c r="N12">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O12">
         <v>8519</v>
@@ -1012,34 +1012,34 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>1.175913333892822</v>
+        <v>1.143019437789917</v>
       </c>
       <c r="C13">
-        <v>0.1805222034454346</v>
+        <v>0.1825206279754639</v>
       </c>
       <c r="D13">
-        <v>0.1634569999219171</v>
+        <v>0.1648745347122339</v>
       </c>
       <c r="E13">
-        <v>-0.1594734303986474</v>
+        <v>-0.1601771945140727</v>
       </c>
       <c r="F13">
-        <v>0.04007339739245709</v>
+        <v>0.04142345553521047</v>
       </c>
       <c r="G13">
-        <v>-0.03914589036405294</v>
+        <v>-0.03932850647580183</v>
       </c>
       <c r="H13">
-        <v>0.4026481323062608</v>
+        <v>0.3949563922373917</v>
       </c>
       <c r="I13">
-        <v>0.4444318029413028</v>
+        <v>0.4388659279500022</v>
       </c>
       <c r="J13">
-        <v>0.6354565452658367</v>
+        <v>0.6295688990369535</v>
       </c>
       <c r="K13">
-        <v>0.6702383566573973</v>
+        <v>0.6651855075698536</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -1048,7 +1048,7 @@
         <v>18</v>
       </c>
       <c r="N13">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O13">
         <v>8519</v>
@@ -1059,34 +1059,34 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>1.229811429977417</v>
+        <v>1.192262411117554</v>
       </c>
       <c r="C14">
-        <v>0.2044544219970703</v>
+        <v>0.18619704246521</v>
       </c>
       <c r="D14">
-        <v>0.162190036742875</v>
+        <v>0.1619136336620633</v>
       </c>
       <c r="E14">
-        <v>-0.1598086515405362</v>
+        <v>-0.1615562121534327</v>
       </c>
       <c r="F14">
-        <v>0.04014274637295639</v>
+        <v>0.03990243956618484</v>
       </c>
       <c r="G14">
-        <v>-0.0389745043012646</v>
+        <v>-0.04003214700148903</v>
       </c>
       <c r="H14">
-        <v>0.415905725287642</v>
+        <v>0.4150384376828705</v>
       </c>
       <c r="I14">
-        <v>0.4430664259808105</v>
+        <v>0.4288121144199436</v>
       </c>
       <c r="J14">
-        <v>0.6469597957940593</v>
+        <v>0.6450289798886848</v>
       </c>
       <c r="K14">
-        <v>0.6684050506784178</v>
+        <v>0.6567740863510014</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -1095,7 +1095,7 @@
         <v>18</v>
       </c>
       <c r="N14">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14">
         <v>8519</v>
@@ -1106,34 +1106,34 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>1.182736158370972</v>
+        <v>1.262259006500244</v>
       </c>
       <c r="C15">
-        <v>0.1960222721099854</v>
+        <v>0.2535579204559326</v>
       </c>
       <c r="D15">
-        <v>0.1664153740308984</v>
+        <v>0.167028402208014</v>
       </c>
       <c r="E15">
-        <v>-0.1586382969274613</v>
+        <v>-0.1600796111982163</v>
       </c>
       <c r="F15">
-        <v>0.04196780079333068</v>
+        <v>0.04248729640717597</v>
       </c>
       <c r="G15">
-        <v>-0.03872610878346897</v>
+        <v>-0.03930906518765184</v>
       </c>
       <c r="H15">
-        <v>0.4109398455174228</v>
+        <v>0.4110283933621646</v>
       </c>
       <c r="I15">
-        <v>0.4421254084048409</v>
+        <v>0.4318571389116377</v>
       </c>
       <c r="J15">
-        <v>0.6432229935817732</v>
+        <v>0.6427141106520844</v>
       </c>
       <c r="K15">
-        <v>0.6678969655731932</v>
+        <v>0.6600171028416404</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -1142,7 +1142,7 @@
         <v>18</v>
       </c>
       <c r="N15">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O15">
         <v>8519</v>
@@ -1153,34 +1153,34 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <v>1.242704391479492</v>
+        <v>1.173664093017578</v>
       </c>
       <c r="C16">
-        <v>0.1944890022277832</v>
+        <v>0.1835098266601562</v>
       </c>
       <c r="D16">
-        <v>0.1627637768480517</v>
+        <v>0.163764768411148</v>
       </c>
       <c r="E16">
-        <v>-0.1599370713428978</v>
+        <v>-0.160674921421189</v>
       </c>
       <c r="F16">
-        <v>0.04155980463390836</v>
+        <v>0.04125520882869628</v>
       </c>
       <c r="G16">
-        <v>-0.03902589697231459</v>
+        <v>-0.03933857195290612</v>
       </c>
       <c r="H16">
-        <v>0.4075202752237017</v>
+        <v>0.3839297264659004</v>
       </c>
       <c r="I16">
-        <v>0.4400679749347275</v>
+        <v>0.4418488498545592</v>
       </c>
       <c r="J16">
-        <v>0.6402444616460614</v>
+        <v>0.6199582633770233</v>
       </c>
       <c r="K16">
-        <v>0.6664587617918736</v>
+        <v>0.6678351939626058</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
@@ -1189,7 +1189,7 @@
         <v>18</v>
       </c>
       <c r="N16">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O16">
         <v>8519</v>
@@ -1200,34 +1200,34 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>1.487431287765503</v>
+        <v>1.41920804977417</v>
       </c>
       <c r="C17">
-        <v>0.08145260810852051</v>
+        <v>0.0797889232635498</v>
       </c>
       <c r="D17">
-        <v>0.05590958076576549</v>
+        <v>0.05516244781248475</v>
       </c>
       <c r="E17">
-        <v>-0.02623594639779306</v>
+        <v>-0.02744061197707263</v>
       </c>
       <c r="F17">
-        <v>0.007591738449365122</v>
+        <v>0.007496299221785956</v>
       </c>
       <c r="G17">
-        <v>-0.001603766181532369</v>
+        <v>-0.001982370811719764</v>
       </c>
       <c r="H17">
-        <v>0.8929427248725972</v>
+        <v>0.8959417106762897</v>
       </c>
       <c r="I17">
-        <v>0.9766190409238856</v>
+        <v>0.9714164832860227</v>
       </c>
       <c r="J17">
-        <v>0.9455674956090555</v>
+        <v>0.9472233602398725</v>
       </c>
       <c r="K17">
-        <v>0.9894907806738085</v>
+        <v>0.9866947129667311</v>
       </c>
       <c r="L17" t="s">
         <v>15</v>
@@ -1236,7 +1236,7 @@
         <v>19</v>
       </c>
       <c r="N17">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O17">
         <v>8519</v>
@@ -1247,34 +1247,34 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>1.596060752868652</v>
+        <v>1.483077049255371</v>
       </c>
       <c r="C18">
-        <v>0.08410167694091797</v>
+        <v>0.09172916412353516</v>
       </c>
       <c r="D18">
-        <v>0.0584699534160317</v>
+        <v>0.05622975780304029</v>
       </c>
       <c r="E18">
-        <v>-0.02543611685422327</v>
+        <v>-0.0281253770462483</v>
       </c>
       <c r="F18">
-        <v>0.008029164967105091</v>
+        <v>0.007458513936266706</v>
       </c>
       <c r="G18">
-        <v>-0.001527575474315304</v>
+        <v>-0.002095142181489291</v>
       </c>
       <c r="H18">
-        <v>0.8810894286914441</v>
+        <v>0.8905272989306845</v>
       </c>
       <c r="I18">
-        <v>0.9780036123169129</v>
+        <v>0.9702148510447263</v>
       </c>
       <c r="J18">
-        <v>0.940001384660357</v>
+        <v>0.9449308975102697</v>
       </c>
       <c r="K18">
-        <v>0.9900831375275361</v>
+        <v>0.9861976806055293</v>
       </c>
       <c r="L18" t="s">
         <v>15</v>
@@ -1283,7 +1283,7 @@
         <v>19</v>
       </c>
       <c r="N18">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O18">
         <v>8519</v>
@@ -1294,34 +1294,34 @@
         <v>2</v>
       </c>
       <c r="B19">
-        <v>1.602743148803711</v>
+        <v>1.380515813827515</v>
       </c>
       <c r="C19">
-        <v>0.08879375457763672</v>
+        <v>0.07583379745483398</v>
       </c>
       <c r="D19">
-        <v>0.05461933431248346</v>
+        <v>0.05560311408571952</v>
       </c>
       <c r="E19">
-        <v>-0.02613050913273877</v>
+        <v>-0.02734683666870669</v>
       </c>
       <c r="F19">
-        <v>0.007002458821417693</v>
+        <v>0.007593755099043979</v>
       </c>
       <c r="G19">
-        <v>-0.001625927749507387</v>
+        <v>-0.001933572870393031</v>
       </c>
       <c r="H19">
-        <v>0.8972989237287378</v>
+        <v>0.8897236838114954</v>
       </c>
       <c r="I19">
-        <v>0.9765063589717059</v>
+        <v>0.9724155406471217</v>
       </c>
       <c r="J19">
-        <v>0.9483651047074084</v>
+        <v>0.9441339215464388</v>
       </c>
       <c r="K19">
-        <v>0.989391932446081</v>
+        <v>0.9872571081755592</v>
       </c>
       <c r="L19" t="s">
         <v>15</v>
@@ -1330,7 +1330,7 @@
         <v>19</v>
       </c>
       <c r="N19">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19">
         <v>8519</v>
@@ -1341,34 +1341,34 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>1.806725740432739</v>
+        <v>1.323032140731812</v>
       </c>
       <c r="C20">
-        <v>0.0967402458190918</v>
+        <v>0.07579755783081055</v>
       </c>
       <c r="D20">
-        <v>0.05390593717326577</v>
+        <v>0.05712816483695411</v>
       </c>
       <c r="E20">
-        <v>-0.0252813629182519</v>
+        <v>-0.02806306949072716</v>
       </c>
       <c r="F20">
-        <v>0.007298590605197895</v>
+        <v>0.007826555960892179</v>
       </c>
       <c r="G20">
-        <v>-0.001497297180196103</v>
+        <v>-0.002046785812610305</v>
       </c>
       <c r="H20">
-        <v>0.8986475711931055</v>
+        <v>0.8914787107532793</v>
       </c>
       <c r="I20">
-        <v>0.9780869762300783</v>
+        <v>0.9704841311233648</v>
       </c>
       <c r="J20">
-        <v>0.9485478490462543</v>
+        <v>0.9452327517442721</v>
       </c>
       <c r="K20">
-        <v>0.9901002496235622</v>
+        <v>0.9863137256431082</v>
       </c>
       <c r="L20" t="s">
         <v>15</v>
@@ -1377,7 +1377,7 @@
         <v>19</v>
       </c>
       <c r="N20">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20">
         <v>8519</v>
@@ -1388,34 +1388,34 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>2.019080877304077</v>
+        <v>1.901436567306519</v>
       </c>
       <c r="C21">
-        <v>0.1196486949920654</v>
+        <v>0.1336417198181152</v>
       </c>
       <c r="D21">
-        <v>0.0575588263887901</v>
+        <v>0.05778302754870716</v>
       </c>
       <c r="E21">
-        <v>-0.02629715387738743</v>
+        <v>-0.02762907556827324</v>
       </c>
       <c r="F21">
-        <v>0.007634216729038966</v>
+        <v>0.007735657131185149</v>
       </c>
       <c r="G21">
-        <v>-0.00163633314438554</v>
+        <v>-0.002062653218526949</v>
       </c>
       <c r="H21">
-        <v>0.8847880138746652</v>
+        <v>0.8861956075477538</v>
       </c>
       <c r="I21">
-        <v>0.9765469487816649</v>
+        <v>0.9706943564537536</v>
       </c>
       <c r="J21">
-        <v>0.9413652932530099</v>
+        <v>0.9418782439132179</v>
       </c>
       <c r="K21">
-        <v>0.9894070373787199</v>
+        <v>0.9863527547904686</v>
       </c>
       <c r="L21" t="s">
         <v>15</v>
@@ -1424,7 +1424,7 @@
         <v>19</v>
       </c>
       <c r="N21">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O21">
         <v>8519</v>
@@ -1435,34 +1435,34 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>0.7916805744171143</v>
+        <v>0.6562478542327881</v>
       </c>
       <c r="C22">
-        <v>0.0090179443359375</v>
+        <v>0.008976221084594727</v>
       </c>
       <c r="D22">
-        <v>0.108364961928249</v>
+        <v>0.1161806208525581</v>
       </c>
       <c r="E22">
-        <v>-0.09252399088805124</v>
+        <v>-0.1001130540039339</v>
       </c>
       <c r="F22">
-        <v>0.01856895696359373</v>
+        <v>0.02115455709145194</v>
       </c>
       <c r="G22">
-        <v>-0.01388231909233326</v>
+        <v>-0.01627193598570594</v>
       </c>
       <c r="H22">
-        <v>0.7381440433255965</v>
+        <v>0.7063474979841049</v>
       </c>
       <c r="I22">
-        <v>0.7976126829976716</v>
+        <v>0.7653773191844473</v>
       </c>
       <c r="J22">
-        <v>0.8642515512847972</v>
+        <v>0.8472564513589412</v>
       </c>
       <c r="K22">
-        <v>0.9025645224402613</v>
+        <v>0.8839769319128512</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -1471,7 +1471,7 @@
         <v>19</v>
       </c>
       <c r="N22">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O22">
         <v>8519</v>
@@ -1482,34 +1482,34 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>0.7290260791778564</v>
+        <v>0.6452770233154297</v>
       </c>
       <c r="C23">
-        <v>0.01097464561462402</v>
+        <v>0.009979009628295898</v>
       </c>
       <c r="D23">
-        <v>0.1104263045794063</v>
+        <v>0.1119216594349134</v>
       </c>
       <c r="E23">
-        <v>-0.09436747523629405</v>
+        <v>-0.0988684246349657</v>
       </c>
       <c r="F23">
-        <v>0.01952562452165627</v>
+        <v>0.01961642816174177</v>
       </c>
       <c r="G23">
-        <v>-0.01434609699598094</v>
+        <v>-0.01588101002714828</v>
       </c>
       <c r="H23">
-        <v>0.7108288126425658</v>
+        <v>0.7120789215454688</v>
       </c>
       <c r="I23">
-        <v>0.7934227692388094</v>
+        <v>0.7742309551122818</v>
       </c>
       <c r="J23">
-        <v>0.8471229271098235</v>
+        <v>0.8476109080153121</v>
       </c>
       <c r="K23">
-        <v>0.9002291322235999</v>
+        <v>0.8890251571377671</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -1518,7 +1518,7 @@
         <v>19</v>
       </c>
       <c r="N23">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O23">
         <v>8519</v>
@@ -1529,34 +1529,34 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>0.7024524211883545</v>
+        <v>0.7025406360626221</v>
       </c>
       <c r="C24">
-        <v>0.009001970291137695</v>
+        <v>0.01097702980041504</v>
       </c>
       <c r="D24">
-        <v>0.1065749556139149</v>
+        <v>0.1144406045485279</v>
       </c>
       <c r="E24">
-        <v>-0.09016668760011053</v>
+        <v>-0.0984879970143506</v>
       </c>
       <c r="F24">
-        <v>0.01763556026724055</v>
+        <v>0.02071046710869586</v>
       </c>
       <c r="G24">
-        <v>-0.01315511952689585</v>
+        <v>-0.01587463170657272</v>
       </c>
       <c r="H24">
-        <v>0.741349279405598</v>
+        <v>0.6992431294528184</v>
       </c>
       <c r="I24">
-        <v>0.809916734650214</v>
+        <v>0.7735316109587013</v>
       </c>
       <c r="J24">
-        <v>0.8660987585830699</v>
+        <v>0.8409777846740709</v>
       </c>
       <c r="K24">
-        <v>0.9094742105336541</v>
+        <v>0.8886786702004408</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
@@ -1565,7 +1565,7 @@
         <v>19</v>
       </c>
       <c r="N24">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O24">
         <v>8519</v>
@@ -1576,34 +1576,34 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>0.7599833011627197</v>
+        <v>0.7099354267120361</v>
       </c>
       <c r="C25">
-        <v>0.01000022888183594</v>
+        <v>0.008960723876953125</v>
       </c>
       <c r="D25">
-        <v>0.1146871449697001</v>
+        <v>0.1184847432291246</v>
       </c>
       <c r="E25">
-        <v>-0.09366804349889879</v>
+        <v>-0.09931100839219409</v>
       </c>
       <c r="F25">
-        <v>0.0207211659279307</v>
+        <v>0.02184824045760993</v>
       </c>
       <c r="G25">
-        <v>-0.01417749803327646</v>
+        <v>-0.01594408821163079</v>
       </c>
       <c r="H25">
-        <v>0.7122539668123361</v>
+        <v>0.6970571431317139</v>
       </c>
       <c r="I25">
-        <v>0.7925115631617524</v>
+        <v>0.7700767642062998</v>
       </c>
       <c r="J25">
-        <v>0.8488360950787646</v>
+        <v>0.841336881714293</v>
       </c>
       <c r="K25">
-        <v>0.8993085306960591</v>
+        <v>0.8867312050630687</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
@@ -1612,7 +1612,7 @@
         <v>19</v>
       </c>
       <c r="N25">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O25">
         <v>8519</v>
@@ -1623,34 +1623,34 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>0.6930246353149414</v>
+        <v>0.6799120903015137</v>
       </c>
       <c r="C26">
-        <v>0.009004116058349609</v>
+        <v>0.01100492477416992</v>
       </c>
       <c r="D26">
-        <v>0.1127204685156912</v>
+        <v>0.1124020426649956</v>
       </c>
       <c r="E26">
-        <v>-0.09455170390284967</v>
+        <v>-0.09752266070998448</v>
       </c>
       <c r="F26">
-        <v>0.01965609550027071</v>
+        <v>0.01978959502153149</v>
       </c>
       <c r="G26">
-        <v>-0.01432152203284348</v>
+        <v>-0.0154849869292317</v>
       </c>
       <c r="H26">
-        <v>0.7033595085870026</v>
+        <v>0.7088621173213315</v>
       </c>
       <c r="I26">
-        <v>0.7947341035575485</v>
+        <v>0.7799933099804195</v>
       </c>
       <c r="J26">
-        <v>0.8425507129632294</v>
+        <v>0.8455263030584221</v>
       </c>
       <c r="K26">
-        <v>0.9010707350046546</v>
+        <v>0.8919683525689586</v>
       </c>
       <c r="L26" t="s">
         <v>16</v>
@@ -1659,7 +1659,7 @@
         <v>19</v>
       </c>
       <c r="N26">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O26">
         <v>8519</v>
@@ -1670,34 +1670,34 @@
         <v>0</v>
       </c>
       <c r="B27">
-        <v>1.676055192947388</v>
+        <v>1.605230331420898</v>
       </c>
       <c r="C27">
-        <v>0.2602739334106445</v>
+        <v>0.2443525791168213</v>
       </c>
       <c r="D27">
-        <v>0.1589645491625789</v>
+        <v>0.1608244400637924</v>
       </c>
       <c r="E27">
-        <v>-0.1499785323748397</v>
+        <v>-0.1500144772233183</v>
       </c>
       <c r="F27">
-        <v>0.0380638439260232</v>
+        <v>0.03979776650141066</v>
       </c>
       <c r="G27">
-        <v>-0.03416025707577236</v>
+        <v>-0.03446177722080826</v>
       </c>
       <c r="H27">
-        <v>0.463230795057808</v>
+        <v>0.4475557367019545</v>
       </c>
       <c r="I27">
-        <v>0.5019850262991344</v>
+        <v>0.503100641231806</v>
       </c>
       <c r="J27">
-        <v>0.6839725325048228</v>
+        <v>0.6727075491029885</v>
       </c>
       <c r="K27">
-        <v>0.7141227380729047</v>
+        <v>0.7144827885859037</v>
       </c>
       <c r="L27" t="s">
         <v>17</v>
@@ -1706,7 +1706,7 @@
         <v>19</v>
       </c>
       <c r="N27">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O27">
         <v>8519</v>
@@ -1717,34 +1717,34 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>1.602894306182861</v>
+        <v>1.352727174758911</v>
       </c>
       <c r="C28">
-        <v>0.2508234977722168</v>
+        <v>0.2223770618438721</v>
       </c>
       <c r="D28">
-        <v>0.1568929528249373</v>
+        <v>0.1540232883052097</v>
       </c>
       <c r="E28">
-        <v>-0.1504262723716558</v>
+        <v>-0.1519207641874309</v>
       </c>
       <c r="F28">
-        <v>0.03730305652423484</v>
+        <v>0.03565895263812199</v>
       </c>
       <c r="G28">
-        <v>-0.03453300558153453</v>
+        <v>-0.03532821227365306</v>
       </c>
       <c r="H28">
-        <v>0.4475480599757296</v>
+        <v>0.4766139882615862</v>
       </c>
       <c r="I28">
-        <v>0.5027405248345485</v>
+        <v>0.4977638872478282</v>
       </c>
       <c r="J28">
-        <v>0.6714485715673949</v>
+        <v>0.6935270863312955</v>
       </c>
       <c r="K28">
-        <v>0.7141758112237648</v>
+        <v>0.7106461635942556</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
@@ -1753,7 +1753,7 @@
         <v>19</v>
       </c>
       <c r="N28">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O28">
         <v>8519</v>
@@ -1764,34 +1764,34 @@
         <v>2</v>
       </c>
       <c r="B29">
-        <v>1.60286545753479</v>
+        <v>1.429681062698364</v>
       </c>
       <c r="C29">
-        <v>0.2333762645721436</v>
+        <v>0.2253997325897217</v>
       </c>
       <c r="D29">
-        <v>0.1572926512668084</v>
+        <v>0.156849989343392</v>
       </c>
       <c r="E29">
-        <v>-0.1504213085688571</v>
+        <v>-0.1506516826030483</v>
       </c>
       <c r="F29">
-        <v>0.03699691369432394</v>
+        <v>0.03762818429726874</v>
       </c>
       <c r="G29">
-        <v>-0.03428839329488317</v>
+        <v>-0.03466032235780442</v>
       </c>
       <c r="H29">
-        <v>0.4573873332177897</v>
+        <v>0.4535644756719456</v>
       </c>
       <c r="I29">
-        <v>0.5045541207159949</v>
+        <v>0.5055338912351529</v>
       </c>
       <c r="J29">
-        <v>0.6783347994626097</v>
+        <v>0.6750228745707504</v>
       </c>
       <c r="K29">
-        <v>0.7158544753388563</v>
+        <v>0.7158392890064412</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
@@ -1800,7 +1800,7 @@
         <v>19</v>
       </c>
       <c r="N29">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O29">
         <v>8519</v>
@@ -1811,34 +1811,34 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>2.293341636657715</v>
+        <v>1.325119495391846</v>
       </c>
       <c r="C30">
-        <v>0.3870704174041748</v>
+        <v>0.2163875102996826</v>
       </c>
       <c r="D30">
-        <v>0.1635713002928008</v>
+        <v>0.1638618768087179</v>
       </c>
       <c r="E30">
-        <v>-0.148507175448928</v>
+        <v>-0.1496595311237596</v>
       </c>
       <c r="F30">
-        <v>0.03959282440474565</v>
+        <v>0.03968390928067027</v>
       </c>
       <c r="G30">
-        <v>-0.03381177394576734</v>
+        <v>-0.03451816419352333</v>
       </c>
       <c r="H30">
-        <v>0.4501912583111577</v>
+        <v>0.449751714674085</v>
       </c>
       <c r="I30">
-        <v>0.5051628921923301</v>
+        <v>0.5022275404093892</v>
       </c>
       <c r="J30">
-        <v>0.6746971115357545</v>
+        <v>0.6752787361504793</v>
       </c>
       <c r="K30">
-        <v>0.7161882244197892</v>
+        <v>0.7130457447017911</v>
       </c>
       <c r="L30" t="s">
         <v>17</v>
@@ -1847,7 +1847,7 @@
         <v>19</v>
       </c>
       <c r="N30">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O30">
         <v>8519</v>
@@ -1858,34 +1858,34 @@
         <v>4</v>
       </c>
       <c r="B31">
-        <v>1.72596263885498</v>
+        <v>1.396641254425049</v>
       </c>
       <c r="C31">
-        <v>0.2712790966033936</v>
+        <v>0.2234196662902832</v>
       </c>
       <c r="D31">
-        <v>0.1534027127043594</v>
+        <v>0.1520228418101929</v>
       </c>
       <c r="E31">
-        <v>-0.1506310220307132</v>
+        <v>-0.1520119143212236</v>
       </c>
       <c r="F31">
-        <v>0.03568265006269766</v>
+        <v>0.03538974392805919</v>
       </c>
       <c r="G31">
-        <v>-0.03434946074674206</v>
+        <v>-0.03514420367975265</v>
       </c>
       <c r="H31">
-        <v>0.4614943313960355</v>
+        <v>0.4793579603551653</v>
       </c>
       <c r="I31">
-        <v>0.5076799214269752</v>
+        <v>0.5006802420762541</v>
       </c>
       <c r="J31">
-        <v>0.6811547759757116</v>
+        <v>0.6948923527099498</v>
       </c>
       <c r="K31">
-        <v>0.7184913346161514</v>
+        <v>0.7132498745692299</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
@@ -1894,7 +1894,7 @@
         <v>19</v>
       </c>
       <c r="N31">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O31">
         <v>8519</v>
@@ -1905,34 +1905,34 @@
         <v>0</v>
       </c>
       <c r="B32">
-        <v>4.17552661895752</v>
+        <v>3.616136789321899</v>
       </c>
       <c r="C32">
-        <v>0.1730804443359375</v>
+        <v>0.1814529895782471</v>
       </c>
       <c r="D32">
-        <v>0.05260100926211707</v>
+        <v>0.04896199988173965</v>
       </c>
       <c r="E32">
-        <v>-0.01885879778824648</v>
+        <v>-0.01894828271480934</v>
       </c>
       <c r="F32">
-        <v>0.007526343265601124</v>
+        <v>0.006445693213426729</v>
       </c>
       <c r="G32">
-        <v>-0.0009073358925899811</v>
+        <v>-0.0009372443025472251</v>
       </c>
       <c r="H32">
-        <v>0.8951131132336667</v>
+        <v>0.9085810815495464</v>
       </c>
       <c r="I32">
-        <v>0.986805915301432</v>
+        <v>0.9863714518720543</v>
       </c>
       <c r="J32">
-        <v>0.9464103541827258</v>
+        <v>0.9535517021152988</v>
       </c>
       <c r="K32">
-        <v>0.9939306994531577</v>
+        <v>0.9937094967033737</v>
       </c>
       <c r="L32" t="s">
         <v>15</v>
@@ -1941,7 +1941,7 @@
         <v>20</v>
       </c>
       <c r="N32">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O32">
         <v>8519</v>
@@ -1952,34 +1952,34 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>4.045052289962769</v>
+        <v>3.911378622055054</v>
       </c>
       <c r="C33">
-        <v>0.1920299530029297</v>
+        <v>0.1797020435333252</v>
       </c>
       <c r="D33">
-        <v>0.05186940794873113</v>
+        <v>0.05009873342605749</v>
       </c>
       <c r="E33">
-        <v>-0.01901734432239502</v>
+        <v>-0.01878644396146429</v>
       </c>
       <c r="F33">
-        <v>0.006637174492922277</v>
+        <v>0.006579120587141588</v>
       </c>
       <c r="G33">
-        <v>-0.000947155619130138</v>
+        <v>-0.0009254313879149144</v>
       </c>
       <c r="H33">
-        <v>0.9002449023595762</v>
+        <v>0.902062692030954</v>
       </c>
       <c r="I33">
-        <v>0.9864867221939515</v>
+        <v>0.9867060676436546</v>
       </c>
       <c r="J33">
-        <v>0.9498207729421173</v>
+        <v>0.9509359472052533</v>
       </c>
       <c r="K33">
-        <v>0.9937667711235532</v>
+        <v>0.9938528100736004</v>
       </c>
       <c r="L33" t="s">
         <v>15</v>
@@ -1988,7 +1988,7 @@
         <v>20</v>
       </c>
       <c r="N33">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O33">
         <v>8519</v>
@@ -1999,34 +1999,34 @@
         <v>2</v>
       </c>
       <c r="B34">
-        <v>3.935122013092041</v>
+        <v>3.367204666137695</v>
       </c>
       <c r="C34">
-        <v>0.1863713264465332</v>
+        <v>0.1815159320831299</v>
       </c>
       <c r="D34">
-        <v>0.04898315225546299</v>
+        <v>0.0492000744674948</v>
       </c>
       <c r="E34">
-        <v>-0.0193519851332262</v>
+        <v>-0.01905514408976507</v>
       </c>
       <c r="F34">
-        <v>0.006223469800221333</v>
+        <v>0.006530997014062864</v>
       </c>
       <c r="G34">
-        <v>-0.0009634075249609984</v>
+        <v>-0.0009400480566908337</v>
       </c>
       <c r="H34">
-        <v>0.9095738677799717</v>
+        <v>0.9039938402709866</v>
       </c>
       <c r="I34">
-        <v>0.9861269840466816</v>
+        <v>0.9864390819940538</v>
       </c>
       <c r="J34">
-        <v>0.9544306865134941</v>
+        <v>0.951478994021451</v>
       </c>
       <c r="K34">
-        <v>0.9936207106575035</v>
+        <v>0.9937623143972658</v>
       </c>
       <c r="L34" t="s">
         <v>15</v>
@@ -2035,7 +2035,7 @@
         <v>20</v>
       </c>
       <c r="N34">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O34">
         <v>8519</v>
@@ -2046,34 +2046,34 @@
         <v>3</v>
       </c>
       <c r="B35">
-        <v>4.248507022857666</v>
+        <v>3.489353895187378</v>
       </c>
       <c r="C35">
-        <v>0.2806222438812256</v>
+        <v>0.1685492992401123</v>
       </c>
       <c r="D35">
-        <v>0.04651517759795727</v>
+        <v>0.04872574859564265</v>
       </c>
       <c r="E35">
-        <v>-0.01970674552193377</v>
+        <v>-0.01911649218324176</v>
       </c>
       <c r="F35">
-        <v>0.005681282938568346</v>
+        <v>0.006287328321709666</v>
       </c>
       <c r="G35">
-        <v>-0.000980894484810649</v>
+        <v>-0.0009549956706016024</v>
       </c>
       <c r="H35">
-        <v>0.9203581401945008</v>
+        <v>0.9120360870877642</v>
       </c>
       <c r="I35">
-        <v>0.9857648116263353</v>
+        <v>0.9860665704591628</v>
       </c>
       <c r="J35">
-        <v>0.9606923817312671</v>
+        <v>0.9558043629177222</v>
       </c>
       <c r="K35">
-        <v>0.9934661022335962</v>
+        <v>0.9935693983248405</v>
       </c>
       <c r="L35" t="s">
         <v>15</v>
@@ -2082,7 +2082,7 @@
         <v>20</v>
       </c>
       <c r="N35">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O35">
         <v>8519</v>
@@ -2093,34 +2093,34 @@
         <v>4</v>
       </c>
       <c r="B36">
-        <v>3.723345994949341</v>
+        <v>3.615462779998779</v>
       </c>
       <c r="C36">
-        <v>0.1642055511474609</v>
+        <v>0.1715457439422607</v>
       </c>
       <c r="D36">
-        <v>0.05308700289823748</v>
+        <v>0.05256565282792254</v>
       </c>
       <c r="E36">
-        <v>-0.01900000593512821</v>
+        <v>-0.0187688706045821</v>
       </c>
       <c r="F36">
-        <v>0.007274647104407145</v>
+        <v>0.007013994369968865</v>
       </c>
       <c r="G36">
-        <v>-0.0009398370409605376</v>
+        <v>-0.0009099920427752841</v>
       </c>
       <c r="H36">
-        <v>0.8930608238845312</v>
+        <v>0.896883221037453</v>
       </c>
       <c r="I36">
-        <v>0.9865219691327353</v>
+        <v>0.9868897143716111</v>
       </c>
       <c r="J36">
-        <v>0.9453347012545418</v>
+        <v>0.9474770328332045</v>
       </c>
       <c r="K36">
-        <v>0.9937713265447483</v>
+        <v>0.993948387592348</v>
       </c>
       <c r="L36" t="s">
         <v>15</v>
@@ -2129,7 +2129,7 @@
         <v>20</v>
       </c>
       <c r="N36">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O36">
         <v>8519</v>
@@ -2140,34 +2140,34 @@
         <v>0</v>
       </c>
       <c r="B37">
-        <v>0.6487898826599121</v>
+        <v>0.6771917343139648</v>
       </c>
       <c r="C37">
-        <v>0.008973598480224609</v>
+        <v>0.008975505828857422</v>
       </c>
       <c r="D37">
-        <v>0.08810782792410629</v>
+        <v>0.09317061053865169</v>
       </c>
       <c r="E37">
-        <v>-0.0651100479443734</v>
+        <v>-0.06910025238570679</v>
       </c>
       <c r="F37">
-        <v>0.01389482870209655</v>
+        <v>0.01470223708422651</v>
       </c>
       <c r="G37">
-        <v>-0.007171106637435075</v>
+        <v>-0.00792125325125774</v>
       </c>
       <c r="H37">
-        <v>0.8063620973314723</v>
+        <v>0.7914789661036951</v>
       </c>
       <c r="I37">
-        <v>0.8957208800737502</v>
+        <v>0.8848163911212759</v>
       </c>
       <c r="J37">
-        <v>0.8991222534616051</v>
+        <v>0.8915349071194749</v>
       </c>
       <c r="K37">
-        <v>0.9508463902631157</v>
+        <v>0.9461113787703037</v>
       </c>
       <c r="L37" t="s">
         <v>16</v>
@@ -2176,7 +2176,7 @@
         <v>20</v>
       </c>
       <c r="N37">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O37">
         <v>8519</v>
@@ -2187,34 +2187,34 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>0.7026569843292236</v>
+        <v>0.7757406234741211</v>
       </c>
       <c r="C38">
-        <v>0.00897526741027832</v>
+        <v>0.009003877639770508</v>
       </c>
       <c r="D38">
-        <v>0.09165055378301425</v>
+        <v>0.08875882133663436</v>
       </c>
       <c r="E38">
-        <v>-0.06597032526163134</v>
+        <v>-0.06834642921064921</v>
       </c>
       <c r="F38">
-        <v>0.01408638701186524</v>
+        <v>0.0135326266105096</v>
       </c>
       <c r="G38">
-        <v>-0.007393943390805065</v>
+        <v>-0.007777017068484725</v>
       </c>
       <c r="H38">
-        <v>0.7882850732238734</v>
+        <v>0.7985522529296875</v>
       </c>
       <c r="I38">
-        <v>0.8945089813077314</v>
+        <v>0.8882822214669845</v>
       </c>
       <c r="J38">
-        <v>0.8891233260656092</v>
+        <v>0.8947945148558883</v>
       </c>
       <c r="K38">
-        <v>0.9503580854949452</v>
+        <v>0.9477089487532898</v>
       </c>
       <c r="L38" t="s">
         <v>16</v>
@@ -2223,7 +2223,7 @@
         <v>20</v>
       </c>
       <c r="N38">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O38">
         <v>8519</v>
@@ -2234,34 +2234,34 @@
         <v>2</v>
       </c>
       <c r="B39">
-        <v>0.6817083358764648</v>
+        <v>0.752964973449707</v>
       </c>
       <c r="C39">
-        <v>0.008975744247436523</v>
+        <v>0.009485244750976562</v>
       </c>
       <c r="D39">
-        <v>0.0895035277458818</v>
+        <v>0.09379326324946859</v>
       </c>
       <c r="E39">
-        <v>-0.06838286478611404</v>
+        <v>-0.07294349367993601</v>
       </c>
       <c r="F39">
-        <v>0.01341728119803629</v>
+        <v>0.01436297559981845</v>
       </c>
       <c r="G39">
-        <v>-0.007898557865169185</v>
+        <v>-0.008834217050600732</v>
       </c>
       <c r="H39">
-        <v>0.8050488099735328</v>
+        <v>0.7888631511159929</v>
       </c>
       <c r="I39">
-        <v>0.8862611963964714</v>
+        <v>0.8725596077591503</v>
       </c>
       <c r="J39">
-        <v>0.8982077543961751</v>
+        <v>0.8905618589025288</v>
       </c>
       <c r="K39">
-        <v>0.9462241707548412</v>
+        <v>0.9398597125696257</v>
       </c>
       <c r="L39" t="s">
         <v>16</v>
@@ -2270,7 +2270,7 @@
         <v>20</v>
       </c>
       <c r="N39">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O39">
         <v>8519</v>
@@ -2281,34 +2281,34 @@
         <v>3</v>
       </c>
       <c r="B40">
-        <v>0.7069544792175293</v>
+        <v>0.7335636615753174</v>
       </c>
       <c r="C40">
-        <v>0.008996963500976562</v>
+        <v>0.008999109268188477</v>
       </c>
       <c r="D40">
-        <v>0.08480668303390422</v>
+        <v>0.08867145065907288</v>
       </c>
       <c r="E40">
-        <v>-0.06343399122466224</v>
+        <v>-0.06868707877902828</v>
       </c>
       <c r="F40">
-        <v>0.01257827388551276</v>
+        <v>0.01330977500452479</v>
       </c>
       <c r="G40">
-        <v>-0.006893030482376138</v>
+        <v>-0.007822133160964568</v>
       </c>
       <c r="H40">
-        <v>0.8236741355399533</v>
+        <v>0.8137873784423095</v>
       </c>
       <c r="I40">
-        <v>0.8999651961536124</v>
+        <v>0.8858747273810282</v>
       </c>
       <c r="J40">
-        <v>0.9091024455375388</v>
+        <v>0.9050305888822774</v>
       </c>
       <c r="K40">
-        <v>0.9528297781166992</v>
+        <v>0.9465723306638516</v>
       </c>
       <c r="L40" t="s">
         <v>16</v>
@@ -2317,7 +2317,7 @@
         <v>20</v>
       </c>
       <c r="N40">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O40">
         <v>8519</v>
@@ -2328,34 +2328,34 @@
         <v>4</v>
       </c>
       <c r="B41">
-        <v>0.6856920719146729</v>
+        <v>0.7412481307983398</v>
       </c>
       <c r="C41">
-        <v>0.008975982666015625</v>
+        <v>0.00997471809387207</v>
       </c>
       <c r="D41">
-        <v>0.09076189535777164</v>
+        <v>0.09385442455136996</v>
       </c>
       <c r="E41">
-        <v>-0.06550947032213351</v>
+        <v>-0.06867988596308648</v>
       </c>
       <c r="F41">
-        <v>0.01439162447017568</v>
+        <v>0.01479564869258967</v>
       </c>
       <c r="G41">
-        <v>-0.007349978603821682</v>
+        <v>-0.007854648805114906</v>
       </c>
       <c r="H41">
-        <v>0.7884394333202185</v>
+        <v>0.7824806300995022</v>
       </c>
       <c r="I41">
-        <v>0.8945953030380681</v>
+        <v>0.8868378134036392</v>
       </c>
       <c r="J41">
-        <v>0.8888793158854338</v>
+        <v>0.8857473410797757</v>
       </c>
       <c r="K41">
-        <v>0.9502114636819958</v>
+        <v>0.9470426049553771</v>
       </c>
       <c r="L41" t="s">
         <v>16</v>
@@ -2364,7 +2364,7 @@
         <v>20</v>
       </c>
       <c r="N41">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O41">
         <v>8519</v>
@@ -2375,34 +2375,34 @@
         <v>0</v>
       </c>
       <c r="B42">
-        <v>1.418094873428345</v>
+        <v>1.563951253890991</v>
       </c>
       <c r="C42">
-        <v>0.207451343536377</v>
+        <v>0.2378385066986084</v>
       </c>
       <c r="D42">
-        <v>0.1599803187083812</v>
+        <v>0.1587934692700388</v>
       </c>
       <c r="E42">
-        <v>-0.1448090148923442</v>
+        <v>-0.1460428916664064</v>
       </c>
       <c r="F42">
-        <v>0.03933931787944445</v>
+        <v>0.03857467748985647</v>
       </c>
       <c r="G42">
-        <v>-0.03225627866784429</v>
+        <v>-0.03288650586400083</v>
       </c>
       <c r="H42">
-        <v>0.4517684838074513</v>
+        <v>0.4528974341577511</v>
       </c>
       <c r="I42">
-        <v>0.5309431972438547</v>
+        <v>0.5217945559024409</v>
       </c>
       <c r="J42">
-        <v>0.6727650227064244</v>
+        <v>0.6758161507567118</v>
       </c>
       <c r="K42">
-        <v>0.7326753026403534</v>
+        <v>0.7280575739647903</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
@@ -2411,7 +2411,7 @@
         <v>20</v>
       </c>
       <c r="N42">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O42">
         <v>8519</v>
@@ -2422,34 +2422,34 @@
         <v>1</v>
       </c>
       <c r="B43">
-        <v>1.329779148101807</v>
+        <v>1.381780624389648</v>
       </c>
       <c r="C43">
-        <v>0.211421012878418</v>
+        <v>0.2094674110412598</v>
       </c>
       <c r="D43">
-        <v>0.1568969230223433</v>
+        <v>0.1541446060021533</v>
       </c>
       <c r="E43">
-        <v>-0.1453273905558512</v>
+        <v>-0.1464656450907542</v>
       </c>
       <c r="F43">
-        <v>0.03706449433627366</v>
+        <v>0.03663043614450252</v>
       </c>
       <c r="G43">
-        <v>-0.03250942620773875</v>
+        <v>-0.03317187241508548</v>
       </c>
       <c r="H43">
-        <v>0.4429297805186977</v>
+        <v>0.4547164384346298</v>
       </c>
       <c r="I43">
-        <v>0.5361808568861531</v>
+        <v>0.5234820930236148</v>
       </c>
       <c r="J43">
-        <v>0.6658284219983847</v>
+        <v>0.6752436180161487</v>
       </c>
       <c r="K43">
-        <v>0.7371393727530724</v>
+        <v>0.7281795657751249</v>
       </c>
       <c r="L43" t="s">
         <v>17</v>
@@ -2458,7 +2458,7 @@
         <v>20</v>
       </c>
       <c r="N43">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O43">
         <v>8519</v>
@@ -2469,34 +2469,34 @@
         <v>2</v>
       </c>
       <c r="B44">
-        <v>1.2804856300354</v>
+        <v>1.340986013412476</v>
       </c>
       <c r="C44">
-        <v>0.2004773616790771</v>
+        <v>0.2124419212341309</v>
       </c>
       <c r="D44">
-        <v>0.1522739894621182</v>
+        <v>0.1537072439640818</v>
       </c>
       <c r="E44">
-        <v>-0.1464762331864716</v>
+        <v>-0.1472892216891803</v>
       </c>
       <c r="F44">
-        <v>0.03563567022360808</v>
+        <v>0.03603963955397927</v>
       </c>
       <c r="G44">
-        <v>-0.03295380272882958</v>
+        <v>-0.03335797450059352</v>
       </c>
       <c r="H44">
-        <v>0.4822187733160194</v>
+        <v>0.4702145194454839</v>
       </c>
       <c r="I44">
-        <v>0.5254670332805762</v>
+        <v>0.5187854984356743</v>
       </c>
       <c r="J44">
-        <v>0.6955171876901101</v>
+        <v>0.6882321440347248</v>
       </c>
       <c r="K44">
-        <v>0.728948739414865</v>
+        <v>0.723992905104092</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
@@ -2505,7 +2505,7 @@
         <v>20</v>
       </c>
       <c r="N44">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O44">
         <v>8519</v>
@@ -2516,34 +2516,34 @@
         <v>3</v>
       </c>
       <c r="B45">
-        <v>1.265141248703003</v>
+        <v>1.340621471405029</v>
       </c>
       <c r="C45">
-        <v>0.1973633766174316</v>
+        <v>0.2119581699371338</v>
       </c>
       <c r="D45">
-        <v>0.1520507711943197</v>
+        <v>0.1552823533362158</v>
       </c>
       <c r="E45">
-        <v>-0.1467107413679112</v>
+        <v>-0.1467704825959756</v>
       </c>
       <c r="F45">
-        <v>0.03531374194933869</v>
+        <v>0.03651208678356151</v>
       </c>
       <c r="G45">
-        <v>-0.0327710148237844</v>
+        <v>-0.03321513418253374</v>
       </c>
       <c r="H45">
-        <v>0.5049617989549504</v>
+        <v>0.4891715753123174</v>
       </c>
       <c r="I45">
-        <v>0.524412078529751</v>
+        <v>0.5153897069185215</v>
       </c>
       <c r="J45">
-        <v>0.7146308344371096</v>
+        <v>0.7032287723590963</v>
       </c>
       <c r="K45">
-        <v>0.7301291031344554</v>
+        <v>0.7229651416580384</v>
       </c>
       <c r="L45" t="s">
         <v>17</v>
@@ -2552,7 +2552,7 @@
         <v>20</v>
       </c>
       <c r="N45">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O45">
         <v>8519</v>
@@ -2563,34 +2563,34 @@
         <v>4</v>
       </c>
       <c r="B46">
-        <v>1.279612064361572</v>
+        <v>1.283023595809937</v>
       </c>
       <c r="C46">
-        <v>0.2712752819061279</v>
+        <v>0.2044835090637207</v>
       </c>
       <c r="D46">
-        <v>0.1492106343767996</v>
+        <v>0.1524162267283593</v>
       </c>
       <c r="E46">
-        <v>-0.1470599713885961</v>
+        <v>-0.1476440969362509</v>
       </c>
       <c r="F46">
-        <v>0.03326858116126055</v>
+        <v>0.0345318034592384</v>
       </c>
       <c r="G46">
-        <v>-0.0332556690494558</v>
+        <v>-0.03336902608381604</v>
       </c>
       <c r="H46">
-        <v>0.5109433339026899</v>
+        <v>0.4923280292709717</v>
       </c>
       <c r="I46">
-        <v>0.5230865411497153</v>
+        <v>0.5192513312910135</v>
       </c>
       <c r="J46">
-        <v>0.7203892445884678</v>
+        <v>0.7059975205294362</v>
       </c>
       <c r="K46">
-        <v>0.7280928316705566</v>
+        <v>0.7264560498443242</v>
       </c>
       <c r="L46" t="s">
         <v>17</v>
@@ -2599,7 +2599,7 @@
         <v>20</v>
       </c>
       <c r="N46">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O46">
         <v>8519</v>
@@ -2610,34 +2610,34 @@
         <v>0</v>
       </c>
       <c r="B47">
-        <v>1.735633134841919</v>
+        <v>1.758808135986328</v>
       </c>
       <c r="C47">
-        <v>0.08477354049682617</v>
+        <v>0.08474278450012207</v>
       </c>
       <c r="D47">
-        <v>0.04828662068965547</v>
+        <v>0.04869903448275888</v>
       </c>
       <c r="E47">
-        <v>-0.01866345379678444</v>
+        <v>-0.01859446527570138</v>
       </c>
       <c r="F47">
-        <v>0.006678603529131983</v>
+        <v>0.006705189187475225</v>
       </c>
       <c r="G47">
-        <v>-0.0009472053172190062</v>
+        <v>-0.0009360611362787186</v>
       </c>
       <c r="H47">
-        <v>0.9068636766277955</v>
+        <v>0.906329432092938</v>
       </c>
       <c r="I47">
-        <v>0.9862596398902067</v>
+        <v>0.986485402807281</v>
       </c>
       <c r="J47">
-        <v>0.9528971519808058</v>
+        <v>0.9524805394519895</v>
       </c>
       <c r="K47">
-        <v>0.9935835005548362</v>
+        <v>0.9936852258153388</v>
       </c>
       <c r="L47" t="s">
         <v>15</v>
@@ -2646,7 +2646,7 @@
         <v>21</v>
       </c>
       <c r="N47">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O47">
         <v>8519</v>
@@ -2657,34 +2657,34 @@
         <v>1</v>
       </c>
       <c r="B48">
-        <v>1.768943786621094</v>
+        <v>1.79172158241272</v>
       </c>
       <c r="C48">
-        <v>0.09426021575927734</v>
+        <v>0.08711338043212891</v>
       </c>
       <c r="D48">
-        <v>0.05198693381794785</v>
+        <v>0.05022944031653313</v>
       </c>
       <c r="E48">
-        <v>-0.0181992835498213</v>
+        <v>-0.01833762858440751</v>
       </c>
       <c r="F48">
-        <v>0.007196165294500734</v>
+        <v>0.00647210711223257</v>
       </c>
       <c r="G48">
-        <v>-0.000937691894698831</v>
+        <v>-0.0009417554437147175</v>
       </c>
       <c r="H48">
-        <v>0.8917159744644896</v>
+        <v>0.9047580804893721</v>
       </c>
       <c r="I48">
-        <v>0.986651814998052</v>
+        <v>0.9865797047582784</v>
       </c>
       <c r="J48">
-        <v>0.9450396892441673</v>
+        <v>0.9522035916526511</v>
       </c>
       <c r="K48">
-        <v>0.993725080128553</v>
+        <v>0.9937140889911067</v>
       </c>
       <c r="L48" t="s">
         <v>15</v>
@@ -2693,7 +2693,7 @@
         <v>21</v>
       </c>
       <c r="N48">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O48">
         <v>8519</v>
@@ -2704,34 +2704,34 @@
         <v>2</v>
       </c>
       <c r="B49">
-        <v>1.842037916183472</v>
+        <v>1.622740030288696</v>
       </c>
       <c r="C49">
-        <v>0.08597826957702637</v>
+        <v>0.08673572540283203</v>
       </c>
       <c r="D49">
-        <v>0.05223206275448033</v>
+        <v>0.04933026615444806</v>
       </c>
       <c r="E49">
-        <v>-0.0182002725500685</v>
+        <v>-0.01841592060398049</v>
       </c>
       <c r="F49">
-        <v>0.007380083730810634</v>
+        <v>0.006408528758371608</v>
       </c>
       <c r="G49">
-        <v>-0.0009198249604389938</v>
+        <v>-0.0009260364530263484</v>
       </c>
       <c r="H49">
-        <v>0.8921970684102445</v>
+        <v>0.9053161170591788</v>
       </c>
       <c r="I49">
-        <v>0.9868004254725758</v>
+        <v>0.9868028262448069</v>
       </c>
       <c r="J49">
-        <v>0.9450226948827324</v>
+        <v>0.9521160384176617</v>
       </c>
       <c r="K49">
-        <v>0.9938304343555968</v>
+        <v>0.9938455204701464</v>
       </c>
       <c r="L49" t="s">
         <v>15</v>
@@ -2740,7 +2740,7 @@
         <v>21</v>
       </c>
       <c r="N49">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O49">
         <v>8519</v>
@@ -2751,34 +2751,34 @@
         <v>3</v>
       </c>
       <c r="B50">
-        <v>1.776906967163086</v>
+        <v>1.933952331542969</v>
       </c>
       <c r="C50">
-        <v>0.08735537528991699</v>
+        <v>0.1187191009521484</v>
       </c>
       <c r="D50">
-        <v>0.04721492489245734</v>
+        <v>0.04896027236548531</v>
       </c>
       <c r="E50">
-        <v>-0.01847220161805076</v>
+        <v>-0.01851626962906779</v>
       </c>
       <c r="F50">
-        <v>0.006162332354744619</v>
+        <v>0.006722989293694805</v>
       </c>
       <c r="G50">
-        <v>-0.0009485740825228256</v>
+        <v>-0.0009143467746556538</v>
       </c>
       <c r="H50">
-        <v>0.9144910443336441</v>
+        <v>0.9071938655696286</v>
       </c>
       <c r="I50">
-        <v>0.9862222961466668</v>
+        <v>0.9867593727379882</v>
       </c>
       <c r="J50">
-        <v>0.9569929233874965</v>
+        <v>0.9538155458227788</v>
       </c>
       <c r="K50">
-        <v>0.9935611889436566</v>
+        <v>0.9938303290858052</v>
       </c>
       <c r="L50" t="s">
         <v>15</v>
@@ -2787,7 +2787,7 @@
         <v>21</v>
       </c>
       <c r="N50">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O50">
         <v>8519</v>
@@ -2798,34 +2798,34 @@
         <v>4</v>
       </c>
       <c r="B51">
-        <v>1.805456161499023</v>
+        <v>1.831610441207886</v>
       </c>
       <c r="C51">
-        <v>0.08902835845947266</v>
+        <v>0.09972190856933594</v>
       </c>
       <c r="D51">
-        <v>0.05013687285776754</v>
+        <v>0.05154360378183187</v>
       </c>
       <c r="E51">
-        <v>-0.01831359357839879</v>
+        <v>-0.01837452059363049</v>
       </c>
       <c r="F51">
-        <v>0.006894068210356642</v>
+        <v>0.007043116909489401</v>
       </c>
       <c r="G51">
-        <v>-0.0009294826501637609</v>
+        <v>-0.0009349466679435584</v>
       </c>
       <c r="H51">
-        <v>0.8992911836317918</v>
+        <v>0.8973587477662667</v>
       </c>
       <c r="I51">
-        <v>0.986675801499882</v>
+        <v>0.9866471210751131</v>
       </c>
       <c r="J51">
-        <v>0.948521830674091</v>
+        <v>0.9475727346109004</v>
       </c>
       <c r="K51">
-        <v>0.9937674429165433</v>
+        <v>0.9937642368769349</v>
       </c>
       <c r="L51" t="s">
         <v>15</v>
@@ -2834,7 +2834,7 @@
         <v>21</v>
       </c>
       <c r="N51">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O51">
         <v>8519</v>
@@ -2845,34 +2845,34 @@
         <v>0</v>
       </c>
       <c r="B52">
-        <v>3.690431833267212</v>
+        <v>2.26582932472229</v>
       </c>
       <c r="C52">
-        <v>0.008975028991699219</v>
+        <v>0.005980014801025391</v>
       </c>
       <c r="D52">
-        <v>0.1329841712172004</v>
+        <v>0.1381825469912126</v>
       </c>
       <c r="E52">
-        <v>-0.1215410070793624</v>
+        <v>-0.1232088540275214</v>
       </c>
       <c r="F52">
-        <v>0.02614110924485011</v>
+        <v>0.02872163488013781</v>
       </c>
       <c r="G52">
-        <v>-0.02159965312285581</v>
+        <v>-0.02265401502278036</v>
       </c>
       <c r="H52">
-        <v>0.6354497173972957</v>
+        <v>0.5987627231358073</v>
       </c>
       <c r="I52">
-        <v>0.6866708761453898</v>
+        <v>0.6729274659902996</v>
       </c>
       <c r="J52">
-        <v>0.8038953490826994</v>
+        <v>0.7782672118327162</v>
       </c>
       <c r="K52">
-        <v>0.8398025656303818</v>
+        <v>0.8314421322458843</v>
       </c>
       <c r="L52" t="s">
         <v>16</v>
@@ -2881,7 +2881,7 @@
         <v>21</v>
       </c>
       <c r="N52">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O52">
         <v>8519</v>
@@ -2892,34 +2892,34 @@
         <v>1</v>
       </c>
       <c r="B53">
-        <v>3.710773944854736</v>
+        <v>2.576067924499512</v>
       </c>
       <c r="C53">
-        <v>0.01096963882446289</v>
+        <v>0.007012844085693359</v>
       </c>
       <c r="D53">
-        <v>0.1325632291795309</v>
+        <v>0.1328612628632888</v>
       </c>
       <c r="E53">
-        <v>-0.1202241300472907</v>
+        <v>-0.1237368678465863</v>
       </c>
       <c r="F53">
-        <v>0.02555409700105167</v>
+        <v>0.02604966150042821</v>
       </c>
       <c r="G53">
-        <v>-0.0215154141815526</v>
+        <v>-0.02278508252999966</v>
       </c>
       <c r="H53">
-        <v>0.6154756903217062</v>
+        <v>0.6166596564488793</v>
       </c>
       <c r="I53">
-        <v>0.693724846602048</v>
+        <v>0.6753057954691059</v>
       </c>
       <c r="J53">
-        <v>0.7893237978842736</v>
+        <v>0.7909847148665596</v>
       </c>
       <c r="K53">
-        <v>0.8434529045244441</v>
+        <v>0.8324722944732492</v>
       </c>
       <c r="L53" t="s">
         <v>16</v>
@@ -2928,7 +2928,7 @@
         <v>21</v>
       </c>
       <c r="N53">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O53">
         <v>8519</v>
@@ -2939,34 +2939,34 @@
         <v>2</v>
       </c>
       <c r="B54">
-        <v>3.452473163604736</v>
+        <v>2.835512161254883</v>
       </c>
       <c r="C54">
-        <v>0.008976936340332031</v>
+        <v>0.00999903678894043</v>
       </c>
       <c r="D54">
-        <v>0.1327197060672143</v>
+        <v>0.1309705746079319</v>
       </c>
       <c r="E54">
-        <v>-0.1201731130237601</v>
+        <v>-0.1240935791968764</v>
       </c>
       <c r="F54">
-        <v>0.0255782182454442</v>
+        <v>0.02538218851671643</v>
       </c>
       <c r="G54">
-        <v>-0.0212702476834831</v>
+        <v>-0.02281618731660229</v>
       </c>
       <c r="H54">
-        <v>0.6263718661903876</v>
+        <v>0.6249865988103479</v>
       </c>
       <c r="I54">
-        <v>0.6947699490771473</v>
+        <v>0.6748408904809422</v>
       </c>
       <c r="J54">
-        <v>0.7969891900770065</v>
+        <v>0.7956765741127916</v>
       </c>
       <c r="K54">
-        <v>0.8448867886389547</v>
+        <v>0.8323700489140449</v>
       </c>
       <c r="L54" t="s">
         <v>16</v>
@@ -2975,7 +2975,7 @@
         <v>21</v>
       </c>
       <c r="N54">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O54">
         <v>8519</v>
@@ -2986,34 +2986,34 @@
         <v>3</v>
       </c>
       <c r="B55">
-        <v>3.418986797332764</v>
+        <v>2.887971162796021</v>
       </c>
       <c r="C55">
-        <v>0.007933616638183594</v>
+        <v>0.007977962493896484</v>
       </c>
       <c r="D55">
-        <v>0.1318851663302537</v>
+        <v>0.1366129135131748</v>
       </c>
       <c r="E55">
-        <v>-0.1220582411694188</v>
+        <v>-0.1244292551646231</v>
       </c>
       <c r="F55">
-        <v>0.02521557465448393</v>
+        <v>0.02705499732322487</v>
       </c>
       <c r="G55">
-        <v>-0.02180372398449151</v>
+        <v>-0.02298376696681836</v>
       </c>
       <c r="H55">
-        <v>0.6501069187591214</v>
+        <v>0.6265248078042635</v>
       </c>
       <c r="I55">
-        <v>0.683308602361151</v>
+        <v>0.6671727839810135</v>
       </c>
       <c r="J55">
-        <v>0.815989539320116</v>
+        <v>0.8010359917234859</v>
       </c>
       <c r="K55">
-        <v>0.8381793133701207</v>
+        <v>0.8281758555844014</v>
       </c>
       <c r="L55" t="s">
         <v>16</v>
@@ -3022,7 +3022,7 @@
         <v>21</v>
       </c>
       <c r="N55">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O55">
         <v>8519</v>
@@ -3033,34 +3033,34 @@
         <v>4</v>
       </c>
       <c r="B56">
-        <v>3.200805902481079</v>
+        <v>3.161211729049683</v>
       </c>
       <c r="C56">
-        <v>0.007977485656738281</v>
+        <v>0.006980180740356445</v>
       </c>
       <c r="D56">
-        <v>0.1302917101835766</v>
+        <v>0.1345842015523942</v>
       </c>
       <c r="E56">
-        <v>-0.1220048817698956</v>
+        <v>-0.1230440473376912</v>
       </c>
       <c r="F56">
-        <v>0.02470124947315457</v>
+        <v>0.02679600571285465</v>
       </c>
       <c r="G56">
-        <v>-0.02179523452535425</v>
+        <v>-0.02259895136097365</v>
       </c>
       <c r="H56">
-        <v>0.6391631876342381</v>
+        <v>0.6094945438824095</v>
       </c>
       <c r="I56">
-        <v>0.6875637957079874</v>
+        <v>0.6772424869792624</v>
       </c>
       <c r="J56">
-        <v>0.8087818296077602</v>
+        <v>0.788759475544203</v>
       </c>
       <c r="K56">
-        <v>0.8403192815238482</v>
+        <v>0.8334909973198095</v>
       </c>
       <c r="L56" t="s">
         <v>16</v>
@@ -3069,7 +3069,7 @@
         <v>21</v>
       </c>
       <c r="N56">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O56">
         <v>8519</v>
@@ -3080,34 +3080,34 @@
         <v>0</v>
       </c>
       <c r="B57">
-        <v>13.09149265289307</v>
+        <v>14.25205779075623</v>
       </c>
       <c r="C57">
-        <v>0.1871414184570312</v>
+        <v>0.166628360748291</v>
       </c>
       <c r="D57">
-        <v>0.1199414716786726</v>
+        <v>0.1248960242534976</v>
       </c>
       <c r="E57">
-        <v>-0.0873458417143454</v>
+        <v>-0.08839375439919023</v>
       </c>
       <c r="F57">
-        <v>0.02407358201205956</v>
+        <v>0.02567051047184124</v>
       </c>
       <c r="G57">
-        <v>-0.008627793449018196</v>
+        <v>-0.009127024290502217</v>
       </c>
       <c r="H57">
-        <v>0.6642823744181934</v>
+        <v>0.6413865101892871</v>
       </c>
       <c r="I57">
-        <v>0.8748434085120163</v>
+        <v>0.8682264949652059</v>
       </c>
       <c r="J57">
-        <v>0.8184571401110965</v>
+        <v>0.8075770906579051</v>
       </c>
       <c r="K57">
-        <v>0.9444796955593719</v>
+        <v>0.9387649334997306</v>
       </c>
       <c r="L57" t="s">
         <v>17</v>
@@ -3116,7 +3116,7 @@
         <v>21</v>
       </c>
       <c r="N57">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O57">
         <v>8519</v>
@@ -3127,34 +3127,34 @@
         <v>1</v>
       </c>
       <c r="B58">
-        <v>13.61252760887146</v>
+        <v>14.40631365776062</v>
       </c>
       <c r="C58">
-        <v>0.1934633255004883</v>
+        <v>0.1810095310211182</v>
       </c>
       <c r="D58">
-        <v>0.1285627828247833</v>
+        <v>0.1269870524219471</v>
       </c>
       <c r="E58">
-        <v>-0.08768059282867693</v>
+        <v>-0.08873812729047129</v>
       </c>
       <c r="F58">
-        <v>0.02731625243303826</v>
+        <v>0.02738416210360575</v>
       </c>
       <c r="G58">
-        <v>-0.008614645286025912</v>
+        <v>-0.009183642188975836</v>
       </c>
       <c r="H58">
-        <v>0.5889597229994169</v>
+        <v>0.5970214772854823</v>
       </c>
       <c r="I58">
-        <v>0.8773692300700049</v>
+        <v>0.8691303667072602</v>
       </c>
       <c r="J58">
-        <v>0.7796849526860553</v>
+        <v>0.7883011663648457</v>
       </c>
       <c r="K58">
-        <v>0.9459042019097258</v>
+        <v>0.9396132972358319</v>
       </c>
       <c r="L58" t="s">
         <v>17</v>
@@ -3163,7 +3163,7 @@
         <v>21</v>
       </c>
       <c r="N58">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O58">
         <v>8519</v>
@@ -3174,34 +3174,34 @@
         <v>2</v>
       </c>
       <c r="B59">
-        <v>12.11900353431702</v>
+        <v>15.27841782569885</v>
       </c>
       <c r="C59">
-        <v>0.1747877597808838</v>
+        <v>0.1894495487213135</v>
       </c>
       <c r="D59">
-        <v>0.1328933426874763</v>
+        <v>0.127413735086806</v>
       </c>
       <c r="E59">
-        <v>-0.08697756330247713</v>
+        <v>-0.0890847692592867</v>
       </c>
       <c r="F59">
-        <v>0.03055362846981164</v>
+        <v>0.02875812897767733</v>
       </c>
       <c r="G59">
-        <v>-0.008468141104639726</v>
+        <v>-0.009244832325647779</v>
       </c>
       <c r="H59">
-        <v>0.5536946679887977</v>
+        <v>0.5751082002772616</v>
       </c>
       <c r="I59">
-        <v>0.8784813802333765</v>
+        <v>0.8682496157246538</v>
       </c>
       <c r="J59">
-        <v>0.7618795187668005</v>
+        <v>0.78063299971328</v>
       </c>
       <c r="K59">
-        <v>0.9473969682661898</v>
+        <v>0.9389355268700665</v>
       </c>
       <c r="L59" t="s">
         <v>17</v>
@@ -3210,7 +3210,7 @@
         <v>21</v>
       </c>
       <c r="N59">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O59">
         <v>8519</v>
@@ -3221,34 +3221,34 @@
         <v>3</v>
       </c>
       <c r="B60">
-        <v>12.94540429115295</v>
+        <v>14.2157576084137</v>
       </c>
       <c r="C60">
-        <v>0.2219476699829102</v>
+        <v>0.1725735664367676</v>
       </c>
       <c r="D60">
-        <v>0.1225610651466345</v>
+        <v>0.1257348919267586</v>
       </c>
       <c r="E60">
-        <v>-0.08809981750109035</v>
+        <v>-0.08941329310010321</v>
       </c>
       <c r="F60">
-        <v>0.02527227653010407</v>
+        <v>0.0277610645724339</v>
       </c>
       <c r="G60">
-        <v>-0.008730993567039876</v>
+        <v>-0.009308299451064548</v>
       </c>
       <c r="H60">
-        <v>0.6493201195588367</v>
+        <v>0.6167780464776567</v>
       </c>
       <c r="I60">
-        <v>0.8731853990864881</v>
+        <v>0.8652068045833595</v>
       </c>
       <c r="J60">
-        <v>0.812256657660353</v>
+        <v>0.7961656000568971</v>
       </c>
       <c r="K60">
-        <v>0.9439718206719578</v>
+        <v>0.9368410330467608</v>
       </c>
       <c r="L60" t="s">
         <v>17</v>
@@ -3257,7 +3257,7 @@
         <v>21</v>
       </c>
       <c r="N60">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O60">
         <v>8519</v>
@@ -3268,34 +3268,34 @@
         <v>4</v>
       </c>
       <c r="B61">
-        <v>14.47272801399231</v>
+        <v>13.63004279136658</v>
       </c>
       <c r="C61">
-        <v>0.2143957614898682</v>
+        <v>0.1674914360046387</v>
       </c>
       <c r="D61">
-        <v>0.1252685299801082</v>
+        <v>0.1287001788290357</v>
       </c>
       <c r="E61">
-        <v>-0.08750970333638589</v>
+        <v>-0.08899340030702273</v>
       </c>
       <c r="F61">
-        <v>0.02704089770654028</v>
+        <v>0.0298105679259748</v>
       </c>
       <c r="G61">
-        <v>-0.00863577192253934</v>
+        <v>-0.009212043670018221</v>
       </c>
       <c r="H61">
-        <v>0.604985515305978</v>
+        <v>0.5655625114502546</v>
       </c>
       <c r="I61">
-        <v>0.8762056082731748</v>
+        <v>0.8684338818522326</v>
       </c>
       <c r="J61">
-        <v>0.7901905015415677</v>
+        <v>0.7690208745753839</v>
       </c>
       <c r="K61">
-        <v>0.9451675062714079</v>
+        <v>0.9387629926826817</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
@@ -3304,7 +3304,7 @@
         <v>21</v>
       </c>
       <c r="N61">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O61">
         <v>8519</v>

--- a/report/ml_perform_crossval_raw_samp_2022-11-24.xlsx
+++ b/report/ml_perform_crossval_raw_samp_2022-11-24.xlsx
@@ -1,20 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.rahmadi\Documents\Git_code\AdamThesis\report\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9833FC-B311-47F6-A27C-DA67B3762A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="22">
   <si>
     <t>index</t>
   </si>
@@ -85,8 +105,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +169,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -195,7 +223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,9 +255,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,6 +307,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,14 +500,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="A1:O61"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -498,31 +574,31 @@
         <v>3.143451452255249</v>
       </c>
       <c r="C2">
-        <v>0.1772477626800537</v>
+        <v>0.17724776268005371</v>
       </c>
       <c r="D2">
-        <v>0.06936266690709525</v>
+        <v>6.936266690709525E-2</v>
       </c>
       <c r="E2">
-        <v>-0.04325329798002886</v>
+        <v>-4.325329798002886E-2</v>
       </c>
       <c r="F2">
-        <v>0.01195512346590867</v>
+        <v>1.1955123465908671E-2</v>
       </c>
       <c r="G2">
-        <v>-0.005970519502295734</v>
+        <v>-5.9705195022957342E-3</v>
       </c>
       <c r="H2">
-        <v>0.8354647268965469</v>
+        <v>0.83546472689654694</v>
       </c>
       <c r="I2">
-        <v>0.9135191814290525</v>
+        <v>0.91351918142905253</v>
       </c>
       <c r="J2">
-        <v>0.9142383494642466</v>
+        <v>0.91423834946424665</v>
       </c>
       <c r="K2">
-        <v>0.9561876698482537</v>
+        <v>0.95618766984825365</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -537,7 +613,7 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -545,31 +621,31 @@
         <v>2.867240428924561</v>
       </c>
       <c r="C3">
-        <v>0.2298035621643066</v>
+        <v>0.22980356216430661</v>
       </c>
       <c r="D3">
-        <v>0.07378919370600902</v>
+        <v>7.3789193706009018E-2</v>
       </c>
       <c r="E3">
-        <v>-0.04225535240248933</v>
+        <v>-4.225535240248933E-2</v>
       </c>
       <c r="F3">
-        <v>0.01350750858389837</v>
+        <v>1.350750858389837E-2</v>
       </c>
       <c r="G3">
-        <v>-0.005770825512659238</v>
+        <v>-5.7708255126592382E-3</v>
       </c>
       <c r="H3">
-        <v>0.8027052156829498</v>
+        <v>0.80270521568294984</v>
       </c>
       <c r="I3">
-        <v>0.9176626038163715</v>
+        <v>0.91766260381637155</v>
       </c>
       <c r="J3">
-        <v>0.8972430949824455</v>
+        <v>0.89724309498244548</v>
       </c>
       <c r="K3">
-        <v>0.9583216428013011</v>
+        <v>0.95832164280130105</v>
       </c>
       <c r="L3" t="s">
         <v>15</v>
@@ -584,7 +660,7 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -592,31 +668,31 @@
         <v>2.449068546295166</v>
       </c>
       <c r="C4">
-        <v>0.1525888442993164</v>
+        <v>0.15258884429931641</v>
       </c>
       <c r="D4">
-        <v>0.07068549818038086</v>
+        <v>7.0685498180380862E-2</v>
       </c>
       <c r="E4">
-        <v>-0.04337618587110399</v>
+        <v>-4.3376185871103992E-2</v>
       </c>
       <c r="F4">
-        <v>0.01241729576919704</v>
+        <v>1.2417295769197039E-2</v>
       </c>
       <c r="G4">
-        <v>-0.005887483485098526</v>
+        <v>-5.8874834850985262E-3</v>
       </c>
       <c r="H4">
-        <v>0.8179649963292238</v>
+        <v>0.81796499632922381</v>
       </c>
       <c r="I4">
-        <v>0.9159960308120411</v>
+        <v>0.91599603081204106</v>
       </c>
       <c r="J4">
-        <v>0.904971503236797</v>
+        <v>0.90497150323679698</v>
       </c>
       <c r="K4">
-        <v>0.95749944454506</v>
+        <v>0.95749944454505997</v>
       </c>
       <c r="L4" t="s">
         <v>15</v>
@@ -631,39 +707,39 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.501757621765137</v>
+        <v>2.5017576217651372</v>
       </c>
       <c r="C5">
         <v>0.1446082592010498</v>
       </c>
       <c r="D5">
-        <v>0.06820908200139277</v>
+        <v>6.8209082001392765E-2</v>
       </c>
       <c r="E5">
-        <v>-0.04329840969481735</v>
+        <v>-4.3298409694817352E-2</v>
       </c>
       <c r="F5">
-        <v>0.0118311356399176</v>
+        <v>1.1831135639917599E-2</v>
       </c>
       <c r="G5">
-        <v>-0.005927165597063198</v>
+        <v>-5.9271655970631982E-3</v>
       </c>
       <c r="H5">
-        <v>0.8359932602109388</v>
+        <v>0.83599326021093878</v>
       </c>
       <c r="I5">
-        <v>0.9143333273283277</v>
+        <v>0.91433332732832773</v>
       </c>
       <c r="J5">
-        <v>0.9146968939241938</v>
+        <v>0.91469689392419384</v>
       </c>
       <c r="K5">
-        <v>0.9566763527147225</v>
+        <v>0.95667635271472251</v>
       </c>
       <c r="L5" t="s">
         <v>15</v>
@@ -678,7 +754,7 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -686,31 +762,31 @@
         <v>2.342713594436646</v>
       </c>
       <c r="C6">
-        <v>0.1492023468017578</v>
+        <v>0.14920234680175781</v>
       </c>
       <c r="D6">
-        <v>0.07034523654757159</v>
+        <v>7.0345236547571591E-2</v>
       </c>
       <c r="E6">
-        <v>-0.04345134352919007</v>
+        <v>-4.345134352919007E-2</v>
       </c>
       <c r="F6">
-        <v>0.01165583301157772</v>
+        <v>1.1655833011577721E-2</v>
       </c>
       <c r="G6">
-        <v>-0.005978248135316036</v>
+        <v>-5.9782481353160364E-3</v>
       </c>
       <c r="H6">
-        <v>0.8259416826241915</v>
+        <v>0.82594168262419154</v>
       </c>
       <c r="I6">
-        <v>0.9151782612603206</v>
+        <v>0.91517826126032065</v>
       </c>
       <c r="J6">
         <v>0.908936286964377</v>
       </c>
       <c r="K6">
-        <v>0.9570641988944465</v>
+        <v>0.95706419889444649</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
@@ -725,39 +801,39 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
-        <v>0.3051891326904297</v>
+        <v>0.30518913269042969</v>
       </c>
       <c r="C7">
-        <v>0.00698089599609375</v>
+        <v>6.98089599609375E-3</v>
       </c>
       <c r="D7">
-        <v>0.1311497395927108</v>
+        <v>0.13114973959271081</v>
       </c>
       <c r="E7">
         <v>-0.1195130104289932</v>
       </c>
       <c r="F7">
-        <v>0.02689144339225695</v>
+        <v>2.689144339225695E-2</v>
       </c>
       <c r="G7">
-        <v>-0.0231280184573896</v>
+        <v>-2.3128018457389599E-2</v>
       </c>
       <c r="H7">
-        <v>0.6299000177364754</v>
+        <v>0.62990001773647541</v>
       </c>
       <c r="I7">
-        <v>0.6649990059742774</v>
+        <v>0.66499900597427741</v>
       </c>
       <c r="J7">
-        <v>0.7985924262794656</v>
+        <v>0.79859242627946558</v>
       </c>
       <c r="K7">
-        <v>0.8223164947082557</v>
+        <v>0.82231649470825574</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -772,39 +848,39 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0.3117580413818359</v>
+        <v>0.31175804138183588</v>
       </c>
       <c r="C8">
-        <v>0.01699686050415039</v>
+        <v>1.6996860504150391E-2</v>
       </c>
       <c r="D8">
-        <v>0.1344216231691459</v>
+        <v>0.13442162316914591</v>
       </c>
       <c r="E8">
-        <v>-0.1220579546924035</v>
+        <v>-0.12205795469240351</v>
       </c>
       <c r="F8">
-        <v>0.02846832204577967</v>
+        <v>2.8468322045779669E-2</v>
       </c>
       <c r="G8">
-        <v>-0.0240948580054984</v>
+        <v>-2.4094858005498401E-2</v>
       </c>
       <c r="H8">
-        <v>0.5841830176894534</v>
+        <v>0.58418301768945335</v>
       </c>
       <c r="I8">
-        <v>0.6562176650056439</v>
+        <v>0.65621766500564394</v>
       </c>
       <c r="J8">
         <v>0.7657325744030361</v>
       </c>
       <c r="K8">
-        <v>0.8171467060179489</v>
+        <v>0.81714670601794892</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -819,15 +895,15 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9">
-        <v>0.3038747310638428</v>
+        <v>0.30387473106384277</v>
       </c>
       <c r="C9">
-        <v>0.01703000068664551</v>
+        <v>1.7030000686645511E-2</v>
       </c>
       <c r="D9">
         <v>0.1306539538545301</v>
@@ -836,22 +912,22 @@
         <v>-0.1243811284529808</v>
       </c>
       <c r="F9">
-        <v>0.02638884782045356</v>
+        <v>2.6388847820453559E-2</v>
       </c>
       <c r="G9">
-        <v>-0.02483500916869104</v>
+        <v>-2.4835009168691038E-2</v>
       </c>
       <c r="H9">
         <v>0.6131449150321362</v>
       </c>
       <c r="I9">
-        <v>0.6456483741704309</v>
+        <v>0.64564837417043086</v>
       </c>
       <c r="J9">
-        <v>0.7864376631358345</v>
+        <v>0.78643766313583452</v>
       </c>
       <c r="K9">
-        <v>0.8106074215961601</v>
+        <v>0.81060742159616006</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -866,39 +942,39 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10">
-        <v>0.311866283416748</v>
+        <v>0.31186628341674799</v>
       </c>
       <c r="C10">
-        <v>0.006018161773681641</v>
+        <v>6.0181617736816406E-3</v>
       </c>
       <c r="D10">
-        <v>0.1337090703888832</v>
+        <v>0.13370907038888319</v>
       </c>
       <c r="E10">
-        <v>-0.12202554336286</v>
+        <v>-0.12202554336286001</v>
       </c>
       <c r="F10">
-        <v>0.02784001028753099</v>
+        <v>2.784001028753099E-2</v>
       </c>
       <c r="G10">
-        <v>-0.02399860856866411</v>
+        <v>-2.399860856866411E-2</v>
       </c>
       <c r="H10">
-        <v>0.6140734531394755</v>
+        <v>0.61407345313947548</v>
       </c>
       <c r="I10">
-        <v>0.6531426512115692</v>
+        <v>0.65314265121156923</v>
       </c>
       <c r="J10">
-        <v>0.7886836829441136</v>
+        <v>0.78868368294411362</v>
       </c>
       <c r="K10">
-        <v>0.8152221035380643</v>
+        <v>0.81522210353806435</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -913,39 +989,39 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11">
-        <v>0.313908576965332</v>
+        <v>0.31390857696533198</v>
       </c>
       <c r="C11">
-        <v>0.006003856658935547</v>
+        <v>6.0038566589355469E-3</v>
       </c>
       <c r="D11">
-        <v>0.1349597100377307</v>
+        <v>0.13495971003773069</v>
       </c>
       <c r="E11">
         <v>-0.1239110258731998</v>
       </c>
       <c r="F11">
-        <v>0.02890794566129854</v>
+        <v>2.8907945661298541E-2</v>
       </c>
       <c r="G11">
-        <v>-0.02472217826232502</v>
+        <v>-2.472217826232502E-2</v>
       </c>
       <c r="H11">
-        <v>0.5683132749414839</v>
+        <v>0.56831327494148387</v>
       </c>
       <c r="I11">
-        <v>0.6492319993787179</v>
+        <v>0.64923199937871789</v>
       </c>
       <c r="J11">
-        <v>0.7568670137017854</v>
+        <v>0.75686701370178544</v>
       </c>
       <c r="K11">
-        <v>0.8124952775471008</v>
+        <v>0.81249527754710082</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
@@ -960,39 +1036,39 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
       <c r="B12">
-        <v>1.181835651397705</v>
+        <v>1.1818356513977051</v>
       </c>
       <c r="C12">
-        <v>0.1836628913879395</v>
+        <v>0.18366289138793951</v>
       </c>
       <c r="D12">
         <v>0.1690928870670462</v>
       </c>
       <c r="E12">
-        <v>-0.1594999529746021</v>
+        <v>-0.15949995297460209</v>
       </c>
       <c r="F12">
-        <v>0.0427666518026109</v>
+        <v>4.2766651802610897E-2</v>
       </c>
       <c r="G12">
-        <v>-0.03908189397470134</v>
+        <v>-3.908189397470134E-2</v>
       </c>
       <c r="H12">
-        <v>0.41141362913327</v>
+        <v>0.41141362913327001</v>
       </c>
       <c r="I12">
         <v>0.4339128812935682</v>
       </c>
       <c r="J12">
-        <v>0.6450872204454658</v>
+        <v>0.64508722044546585</v>
       </c>
       <c r="K12">
-        <v>0.6616257822116463</v>
+        <v>0.66162578221164625</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
@@ -1007,7 +1083,7 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1015,7 +1091,7 @@
         <v>1.143019437789917</v>
       </c>
       <c r="C13">
-        <v>0.1825206279754639</v>
+        <v>0.18252062797546389</v>
       </c>
       <c r="D13">
         <v>0.1648745347122339</v>
@@ -1024,22 +1100,22 @@
         <v>-0.1601771945140727</v>
       </c>
       <c r="F13">
-        <v>0.04142345553521047</v>
+        <v>4.1423455535210471E-2</v>
       </c>
       <c r="G13">
-        <v>-0.03932850647580183</v>
+        <v>-3.9328506475801828E-2</v>
       </c>
       <c r="H13">
-        <v>0.3949563922373917</v>
+        <v>0.39495639223739171</v>
       </c>
       <c r="I13">
-        <v>0.4388659279500022</v>
+        <v>0.43886592795000218</v>
       </c>
       <c r="J13">
-        <v>0.6295688990369535</v>
+        <v>0.62956889903695346</v>
       </c>
       <c r="K13">
-        <v>0.6651855075698536</v>
+        <v>0.66518550756985362</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -1054,39 +1130,39 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14">
-        <v>1.192262411117554</v>
+        <v>1.1922624111175539</v>
       </c>
       <c r="C14">
-        <v>0.18619704246521</v>
+        <v>0.18619704246520999</v>
       </c>
       <c r="D14">
-        <v>0.1619136336620633</v>
+        <v>0.16191363366206329</v>
       </c>
       <c r="E14">
-        <v>-0.1615562121534327</v>
+        <v>-0.16155621215343269</v>
       </c>
       <c r="F14">
-        <v>0.03990243956618484</v>
+        <v>3.990243956618484E-2</v>
       </c>
       <c r="G14">
-        <v>-0.04003214700148903</v>
+        <v>-4.0032147001489028E-2</v>
       </c>
       <c r="H14">
-        <v>0.4150384376828705</v>
+        <v>0.41503843768287052</v>
       </c>
       <c r="I14">
         <v>0.4288121144199436</v>
       </c>
       <c r="J14">
-        <v>0.6450289798886848</v>
+        <v>0.64502897988868479</v>
       </c>
       <c r="K14">
-        <v>0.6567740863510014</v>
+        <v>0.65677408635100143</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -1101,39 +1177,39 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15">
-        <v>1.262259006500244</v>
+        <v>1.2622590065002439</v>
       </c>
       <c r="C15">
-        <v>0.2535579204559326</v>
+        <v>0.25355792045593262</v>
       </c>
       <c r="D15">
-        <v>0.167028402208014</v>
+        <v>0.16702840220801399</v>
       </c>
       <c r="E15">
-        <v>-0.1600796111982163</v>
+        <v>-0.16007961119821629</v>
       </c>
       <c r="F15">
-        <v>0.04248729640717597</v>
+        <v>4.2487296407175967E-2</v>
       </c>
       <c r="G15">
-        <v>-0.03930906518765184</v>
+        <v>-3.9309065187651843E-2</v>
       </c>
       <c r="H15">
-        <v>0.4110283933621646</v>
+        <v>0.41102839336216462</v>
       </c>
       <c r="I15">
-        <v>0.4318571389116377</v>
+        <v>0.43185713891163768</v>
       </c>
       <c r="J15">
-        <v>0.6427141106520844</v>
+        <v>0.64271411065208439</v>
       </c>
       <c r="K15">
-        <v>0.6600171028416404</v>
+        <v>0.66001710284164039</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -1148,39 +1224,39 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
       <c r="B16">
-        <v>1.173664093017578</v>
+        <v>1.1736640930175779</v>
       </c>
       <c r="C16">
-        <v>0.1835098266601562</v>
+        <v>0.18350982666015619</v>
       </c>
       <c r="D16">
-        <v>0.163764768411148</v>
+        <v>0.16376476841114801</v>
       </c>
       <c r="E16">
         <v>-0.160674921421189</v>
       </c>
       <c r="F16">
-        <v>0.04125520882869628</v>
+        <v>4.125520882869628E-2</v>
       </c>
       <c r="G16">
-        <v>-0.03933857195290612</v>
+        <v>-3.9338571952906118E-2</v>
       </c>
       <c r="H16">
         <v>0.3839297264659004</v>
       </c>
       <c r="I16">
-        <v>0.4418488498545592</v>
+        <v>0.44184884985455919</v>
       </c>
       <c r="J16">
-        <v>0.6199582633770233</v>
+        <v>0.61995826337702331</v>
       </c>
       <c r="K16">
-        <v>0.6678351939626058</v>
+        <v>0.66783519396260582</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
@@ -1195,39 +1271,39 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
       <c r="B17">
-        <v>1.41920804977417</v>
+        <v>1.4192080497741699</v>
       </c>
       <c r="C17">
-        <v>0.0797889232635498</v>
+        <v>7.9788923263549805E-2</v>
       </c>
       <c r="D17">
-        <v>0.05516244781248475</v>
+        <v>5.5162447812484749E-2</v>
       </c>
       <c r="E17">
-        <v>-0.02744061197707263</v>
+        <v>-2.7440611977072631E-2</v>
       </c>
       <c r="F17">
-        <v>0.007496299221785956</v>
+        <v>7.4962992217859556E-3</v>
       </c>
       <c r="G17">
-        <v>-0.001982370811719764</v>
+        <v>-1.9823708117197641E-3</v>
       </c>
       <c r="H17">
-        <v>0.8959417106762897</v>
+        <v>0.89594171067628969</v>
       </c>
       <c r="I17">
         <v>0.9714164832860227</v>
       </c>
       <c r="J17">
-        <v>0.9472233602398725</v>
+        <v>0.94722336023987252</v>
       </c>
       <c r="K17">
-        <v>0.9866947129667311</v>
+        <v>0.98669471296673106</v>
       </c>
       <c r="L17" t="s">
         <v>15</v>
@@ -1242,39 +1318,39 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18">
-        <v>1.483077049255371</v>
+        <v>1.4830770492553711</v>
       </c>
       <c r="C18">
-        <v>0.09172916412353516</v>
+        <v>9.1729164123535156E-2</v>
       </c>
       <c r="D18">
-        <v>0.05622975780304029</v>
+        <v>5.6229757803040292E-2</v>
       </c>
       <c r="E18">
-        <v>-0.0281253770462483</v>
+        <v>-2.81253770462483E-2</v>
       </c>
       <c r="F18">
-        <v>0.007458513936266706</v>
+        <v>7.4585139362667056E-3</v>
       </c>
       <c r="G18">
-        <v>-0.002095142181489291</v>
+        <v>-2.095142181489291E-3</v>
       </c>
       <c r="H18">
         <v>0.8905272989306845</v>
       </c>
       <c r="I18">
-        <v>0.9702148510447263</v>
+        <v>0.97021485104472627</v>
       </c>
       <c r="J18">
-        <v>0.9449308975102697</v>
+        <v>0.94493089751026971</v>
       </c>
       <c r="K18">
-        <v>0.9861976806055293</v>
+        <v>0.98619768060552926</v>
       </c>
       <c r="L18" t="s">
         <v>15</v>
@@ -1289,39 +1365,39 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19">
-        <v>1.380515813827515</v>
+        <v>1.3805158138275151</v>
       </c>
       <c r="C19">
-        <v>0.07583379745483398</v>
+        <v>7.5833797454833984E-2</v>
       </c>
       <c r="D19">
-        <v>0.05560311408571952</v>
+        <v>5.5603114085719517E-2</v>
       </c>
       <c r="E19">
-        <v>-0.02734683666870669</v>
+        <v>-2.734683666870669E-2</v>
       </c>
       <c r="F19">
-        <v>0.007593755099043979</v>
+        <v>7.5937550990439794E-3</v>
       </c>
       <c r="G19">
-        <v>-0.001933572870393031</v>
+        <v>-1.933572870393031E-3</v>
       </c>
       <c r="H19">
-        <v>0.8897236838114954</v>
+        <v>0.88972368381149536</v>
       </c>
       <c r="I19">
-        <v>0.9724155406471217</v>
+        <v>0.97241554064712166</v>
       </c>
       <c r="J19">
-        <v>0.9441339215464388</v>
+        <v>0.94413392154643883</v>
       </c>
       <c r="K19">
-        <v>0.9872571081755592</v>
+        <v>0.98725710817555923</v>
       </c>
       <c r="L19" t="s">
         <v>15</v>
@@ -1336,7 +1412,7 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1344,31 +1420,31 @@
         <v>1.323032140731812</v>
       </c>
       <c r="C20">
-        <v>0.07579755783081055</v>
+        <v>7.5797557830810547E-2</v>
       </c>
       <c r="D20">
-        <v>0.05712816483695411</v>
+        <v>5.7128164836954112E-2</v>
       </c>
       <c r="E20">
-        <v>-0.02806306949072716</v>
+        <v>-2.806306949072716E-2</v>
       </c>
       <c r="F20">
-        <v>0.007826555960892179</v>
+        <v>7.826555960892179E-3</v>
       </c>
       <c r="G20">
-        <v>-0.002046785812610305</v>
+        <v>-2.0467858126103052E-3</v>
       </c>
       <c r="H20">
-        <v>0.8914787107532793</v>
+        <v>0.89147871075327934</v>
       </c>
       <c r="I20">
-        <v>0.9704841311233648</v>
+        <v>0.97048413112336485</v>
       </c>
       <c r="J20">
-        <v>0.9452327517442721</v>
+        <v>0.94523275174427213</v>
       </c>
       <c r="K20">
-        <v>0.9863137256431082</v>
+        <v>0.98631372564310815</v>
       </c>
       <c r="L20" t="s">
         <v>15</v>
@@ -1383,7 +1459,7 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1391,31 +1467,31 @@
         <v>1.901436567306519</v>
       </c>
       <c r="C21">
-        <v>0.1336417198181152</v>
+        <v>0.13364171981811521</v>
       </c>
       <c r="D21">
-        <v>0.05778302754870716</v>
+        <v>5.7783027548707157E-2</v>
       </c>
       <c r="E21">
-        <v>-0.02762907556827324</v>
+        <v>-2.762907556827324E-2</v>
       </c>
       <c r="F21">
-        <v>0.007735657131185149</v>
+        <v>7.7356571311851486E-3</v>
       </c>
       <c r="G21">
-        <v>-0.002062653218526949</v>
+        <v>-2.0626532185269489E-3</v>
       </c>
       <c r="H21">
-        <v>0.8861956075477538</v>
+        <v>0.88619560754775384</v>
       </c>
       <c r="I21">
-        <v>0.9706943564537536</v>
+        <v>0.97069435645375357</v>
       </c>
       <c r="J21">
-        <v>0.9418782439132179</v>
+        <v>0.94187824391321795</v>
       </c>
       <c r="K21">
-        <v>0.9863527547904686</v>
+        <v>0.98635275479046858</v>
       </c>
       <c r="L21" t="s">
         <v>15</v>
@@ -1430,36 +1506,36 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
       <c r="B22">
-        <v>0.6562478542327881</v>
+        <v>0.65624785423278809</v>
       </c>
       <c r="C22">
-        <v>0.008976221084594727</v>
+        <v>8.9762210845947266E-3</v>
       </c>
       <c r="D22">
-        <v>0.1161806208525581</v>
+        <v>0.11618062085255811</v>
       </c>
       <c r="E22">
         <v>-0.1001130540039339</v>
       </c>
       <c r="F22">
-        <v>0.02115455709145194</v>
+        <v>2.1154557091451941E-2</v>
       </c>
       <c r="G22">
-        <v>-0.01627193598570594</v>
+        <v>-1.6271935985705938E-2</v>
       </c>
       <c r="H22">
         <v>0.7063474979841049</v>
       </c>
       <c r="I22">
-        <v>0.7653773191844473</v>
+        <v>0.76537731918444729</v>
       </c>
       <c r="J22">
-        <v>0.8472564513589412</v>
+        <v>0.84725645135894123</v>
       </c>
       <c r="K22">
         <v>0.8839769319128512</v>
@@ -1477,39 +1553,39 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23">
-        <v>0.6452770233154297</v>
+        <v>0.64527702331542969</v>
       </c>
       <c r="C23">
-        <v>0.009979009628295898</v>
+        <v>9.9790096282958984E-3</v>
       </c>
       <c r="D23">
         <v>0.1119216594349134</v>
       </c>
       <c r="E23">
-        <v>-0.0988684246349657</v>
+        <v>-9.8868424634965701E-2</v>
       </c>
       <c r="F23">
-        <v>0.01961642816174177</v>
+        <v>1.9616428161741771E-2</v>
       </c>
       <c r="G23">
-        <v>-0.01588101002714828</v>
+        <v>-1.5881010027148281E-2</v>
       </c>
       <c r="H23">
-        <v>0.7120789215454688</v>
+        <v>0.71207892154546881</v>
       </c>
       <c r="I23">
-        <v>0.7742309551122818</v>
+        <v>0.77423095511228179</v>
       </c>
       <c r="J23">
-        <v>0.8476109080153121</v>
+        <v>0.84761090801531214</v>
       </c>
       <c r="K23">
-        <v>0.8890251571377671</v>
+        <v>0.88902515713776709</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -1524,39 +1600,39 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24">
-        <v>0.7025406360626221</v>
+        <v>0.70254063606262207</v>
       </c>
       <c r="C24">
-        <v>0.01097702980041504</v>
+        <v>1.0977029800415041E-2</v>
       </c>
       <c r="D24">
         <v>0.1144406045485279</v>
       </c>
       <c r="E24">
-        <v>-0.0984879970143506</v>
+        <v>-9.8487997014350598E-2</v>
       </c>
       <c r="F24">
-        <v>0.02071046710869586</v>
+        <v>2.0710467108695861E-2</v>
       </c>
       <c r="G24">
-        <v>-0.01587463170657272</v>
+        <v>-1.5874631706572721E-2</v>
       </c>
       <c r="H24">
-        <v>0.6992431294528184</v>
+        <v>0.69924312945281841</v>
       </c>
       <c r="I24">
-        <v>0.7735316109587013</v>
+        <v>0.77353161095870127</v>
       </c>
       <c r="J24">
-        <v>0.8409777846740709</v>
+        <v>0.84097778467407092</v>
       </c>
       <c r="K24">
-        <v>0.8886786702004408</v>
+        <v>0.88867867020044078</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
@@ -1571,39 +1647,39 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
       <c r="B25">
-        <v>0.7099354267120361</v>
+        <v>0.70993542671203613</v>
       </c>
       <c r="C25">
-        <v>0.008960723876953125</v>
+        <v>8.960723876953125E-3</v>
       </c>
       <c r="D25">
         <v>0.1184847432291246</v>
       </c>
       <c r="E25">
-        <v>-0.09931100839219409</v>
+        <v>-9.9311008392194089E-2</v>
       </c>
       <c r="F25">
-        <v>0.02184824045760993</v>
+        <v>2.1848240457609931E-2</v>
       </c>
       <c r="G25">
-        <v>-0.01594408821163079</v>
+        <v>-1.5944088211630791E-2</v>
       </c>
       <c r="H25">
-        <v>0.6970571431317139</v>
+        <v>0.69705714313171385</v>
       </c>
       <c r="I25">
-        <v>0.7700767642062998</v>
+        <v>0.77007676420629978</v>
       </c>
       <c r="J25">
-        <v>0.841336881714293</v>
+        <v>0.84133688171429299</v>
       </c>
       <c r="K25">
-        <v>0.8867312050630687</v>
+        <v>0.88673120506306868</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
@@ -1618,39 +1694,39 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4</v>
       </c>
       <c r="B26">
-        <v>0.6799120903015137</v>
+        <v>0.67991209030151367</v>
       </c>
       <c r="C26">
-        <v>0.01100492477416992</v>
+        <v>1.100492477416992E-2</v>
       </c>
       <c r="D26">
-        <v>0.1124020426649956</v>
+        <v>0.11240204266499559</v>
       </c>
       <c r="E26">
-        <v>-0.09752266070998448</v>
+        <v>-9.7522660709984485E-2</v>
       </c>
       <c r="F26">
-        <v>0.01978959502153149</v>
+        <v>1.9789595021531489E-2</v>
       </c>
       <c r="G26">
-        <v>-0.0154849869292317</v>
+        <v>-1.5484986929231699E-2</v>
       </c>
       <c r="H26">
-        <v>0.7088621173213315</v>
+        <v>0.70886211732133153</v>
       </c>
       <c r="I26">
-        <v>0.7799933099804195</v>
+        <v>0.77999330998041949</v>
       </c>
       <c r="J26">
-        <v>0.8455263030584221</v>
+        <v>0.84552630305842214</v>
       </c>
       <c r="K26">
-        <v>0.8919683525689586</v>
+        <v>0.89196835256895857</v>
       </c>
       <c r="L26" t="s">
         <v>16</v>
@@ -1665,7 +1741,7 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1673,31 +1749,31 @@
         <v>1.605230331420898</v>
       </c>
       <c r="C27">
-        <v>0.2443525791168213</v>
+        <v>0.24435257911682129</v>
       </c>
       <c r="D27">
         <v>0.1608244400637924</v>
       </c>
       <c r="E27">
-        <v>-0.1500144772233183</v>
+        <v>-0.15001447722331829</v>
       </c>
       <c r="F27">
-        <v>0.03979776650141066</v>
+        <v>3.9797766501410661E-2</v>
       </c>
       <c r="G27">
-        <v>-0.03446177722080826</v>
+        <v>-3.446177722080826E-2</v>
       </c>
       <c r="H27">
-        <v>0.4475557367019545</v>
+        <v>0.44755573670195448</v>
       </c>
       <c r="I27">
-        <v>0.503100641231806</v>
+        <v>0.50310064123180598</v>
       </c>
       <c r="J27">
-        <v>0.6727075491029885</v>
+        <v>0.67270754910298847</v>
       </c>
       <c r="K27">
-        <v>0.7144827885859037</v>
+        <v>0.71448278858590375</v>
       </c>
       <c r="L27" t="s">
         <v>17</v>
@@ -1712,12 +1788,12 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28">
-        <v>1.352727174758911</v>
+        <v>1.3527271747589109</v>
       </c>
       <c r="C28">
         <v>0.2223770618438721</v>
@@ -1726,25 +1802,25 @@
         <v>0.1540232883052097</v>
       </c>
       <c r="E28">
-        <v>-0.1519207641874309</v>
+        <v>-0.15192076418743089</v>
       </c>
       <c r="F28">
-        <v>0.03565895263812199</v>
+        <v>3.5658952638121993E-2</v>
       </c>
       <c r="G28">
-        <v>-0.03532821227365306</v>
+        <v>-3.5328212273653063E-2</v>
       </c>
       <c r="H28">
-        <v>0.4766139882615862</v>
+        <v>0.47661398826158619</v>
       </c>
       <c r="I28">
-        <v>0.4977638872478282</v>
+        <v>0.49776388724782822</v>
       </c>
       <c r="J28">
-        <v>0.6935270863312955</v>
+        <v>0.69352708633129545</v>
       </c>
       <c r="K28">
-        <v>0.7106461635942556</v>
+        <v>0.71064616359425559</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
@@ -1759,7 +1835,7 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1767,31 +1843,31 @@
         <v>1.429681062698364</v>
       </c>
       <c r="C29">
-        <v>0.2253997325897217</v>
+        <v>0.22539973258972171</v>
       </c>
       <c r="D29">
         <v>0.156849989343392</v>
       </c>
       <c r="E29">
-        <v>-0.1506516826030483</v>
+        <v>-0.15065168260304829</v>
       </c>
       <c r="F29">
-        <v>0.03762818429726874</v>
+        <v>3.7628184297268739E-2</v>
       </c>
       <c r="G29">
-        <v>-0.03466032235780442</v>
+        <v>-3.4660322357804418E-2</v>
       </c>
       <c r="H29">
-        <v>0.4535644756719456</v>
+        <v>0.45356447567194558</v>
       </c>
       <c r="I29">
-        <v>0.5055338912351529</v>
+        <v>0.50553389123515291</v>
       </c>
       <c r="J29">
-        <v>0.6750228745707504</v>
+        <v>0.67502287457075039</v>
       </c>
       <c r="K29">
-        <v>0.7158392890064412</v>
+        <v>0.71583928900644123</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
@@ -1806,39 +1882,39 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="B30">
-        <v>1.325119495391846</v>
+        <v>1.3251194953918459</v>
       </c>
       <c r="C30">
-        <v>0.2163875102996826</v>
+        <v>0.21638751029968259</v>
       </c>
       <c r="D30">
-        <v>0.1638618768087179</v>
+        <v>0.16386187680871789</v>
       </c>
       <c r="E30">
         <v>-0.1496595311237596</v>
       </c>
       <c r="F30">
-        <v>0.03968390928067027</v>
+        <v>3.9683909280670268E-2</v>
       </c>
       <c r="G30">
-        <v>-0.03451816419352333</v>
+        <v>-3.4518164193523333E-2</v>
       </c>
       <c r="H30">
-        <v>0.449751714674085</v>
+        <v>0.44975171467408498</v>
       </c>
       <c r="I30">
-        <v>0.5022275404093892</v>
+        <v>0.50222754040938922</v>
       </c>
       <c r="J30">
-        <v>0.6752787361504793</v>
+        <v>0.67527873615047929</v>
       </c>
       <c r="K30">
-        <v>0.7130457447017911</v>
+        <v>0.71304574470179105</v>
       </c>
       <c r="L30" t="s">
         <v>17</v>
@@ -1853,12 +1929,12 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
       <c r="B31">
-        <v>1.396641254425049</v>
+        <v>1.3966412544250491</v>
       </c>
       <c r="C31">
         <v>0.2234196662902832</v>
@@ -1870,22 +1946,22 @@
         <v>-0.1520119143212236</v>
       </c>
       <c r="F31">
-        <v>0.03538974392805919</v>
+        <v>3.5389743928059193E-2</v>
       </c>
       <c r="G31">
-        <v>-0.03514420367975265</v>
+        <v>-3.5144203679752649E-2</v>
       </c>
       <c r="H31">
-        <v>0.4793579603551653</v>
+        <v>0.47935796035516531</v>
       </c>
       <c r="I31">
-        <v>0.5006802420762541</v>
+        <v>0.50068024207625406</v>
       </c>
       <c r="J31">
-        <v>0.6948923527099498</v>
+        <v>0.69489235270994976</v>
       </c>
       <c r="K31">
-        <v>0.7132498745692299</v>
+        <v>0.71324987456922995</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
@@ -1900,7 +1976,7 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
@@ -1911,28 +1987,28 @@
         <v>0.1814529895782471</v>
       </c>
       <c r="D32">
-        <v>0.04896199988173965</v>
+        <v>4.8961999881739653E-2</v>
       </c>
       <c r="E32">
-        <v>-0.01894828271480934</v>
+        <v>-1.8948282714809341E-2</v>
       </c>
       <c r="F32">
-        <v>0.006445693213426729</v>
+        <v>6.4456932134267291E-3</v>
       </c>
       <c r="G32">
-        <v>-0.0009372443025472251</v>
+        <v>-9.3724430254722507E-4</v>
       </c>
       <c r="H32">
-        <v>0.9085810815495464</v>
+        <v>0.90858108154954642</v>
       </c>
       <c r="I32">
-        <v>0.9863714518720543</v>
+        <v>0.98637145187205433</v>
       </c>
       <c r="J32">
-        <v>0.9535517021152988</v>
+        <v>0.95355170211529883</v>
       </c>
       <c r="K32">
-        <v>0.9937094967033737</v>
+        <v>0.99370949670337372</v>
       </c>
       <c r="L32" t="s">
         <v>15</v>
@@ -1947,39 +2023,39 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33">
-        <v>3.911378622055054</v>
+        <v>3.9113786220550542</v>
       </c>
       <c r="C33">
         <v>0.1797020435333252</v>
       </c>
       <c r="D33">
-        <v>0.05009873342605749</v>
+        <v>5.0098733426057487E-2</v>
       </c>
       <c r="E33">
-        <v>-0.01878644396146429</v>
+        <v>-1.878644396146429E-2</v>
       </c>
       <c r="F33">
-        <v>0.006579120587141588</v>
+        <v>6.5791205871415879E-3</v>
       </c>
       <c r="G33">
-        <v>-0.0009254313879149144</v>
+        <v>-9.2543138791491438E-4</v>
       </c>
       <c r="H33">
-        <v>0.902062692030954</v>
+        <v>0.90206269203095402</v>
       </c>
       <c r="I33">
-        <v>0.9867060676436546</v>
+        <v>0.98670606764365465</v>
       </c>
       <c r="J33">
-        <v>0.9509359472052533</v>
+        <v>0.95093594720525332</v>
       </c>
       <c r="K33">
-        <v>0.9938528100736004</v>
+        <v>0.99385281007360038</v>
       </c>
       <c r="L33" t="s">
         <v>15</v>
@@ -1994,39 +2070,39 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="B34">
-        <v>3.367204666137695</v>
+        <v>3.3672046661376949</v>
       </c>
       <c r="C34">
-        <v>0.1815159320831299</v>
+        <v>0.18151593208312991</v>
       </c>
       <c r="D34">
-        <v>0.0492000744674948</v>
+        <v>4.9200074467494803E-2</v>
       </c>
       <c r="E34">
-        <v>-0.01905514408976507</v>
+        <v>-1.905514408976507E-2</v>
       </c>
       <c r="F34">
-        <v>0.006530997014062864</v>
+        <v>6.5309970140628639E-3</v>
       </c>
       <c r="G34">
-        <v>-0.0009400480566908337</v>
+        <v>-9.4004805669083375E-4</v>
       </c>
       <c r="H34">
-        <v>0.9039938402709866</v>
+        <v>0.90399384027098661</v>
       </c>
       <c r="I34">
-        <v>0.9864390819940538</v>
+        <v>0.98643908199405383</v>
       </c>
       <c r="J34">
-        <v>0.951478994021451</v>
+        <v>0.95147899402145097</v>
       </c>
       <c r="K34">
-        <v>0.9937623143972658</v>
+        <v>0.99376231439726581</v>
       </c>
       <c r="L34" t="s">
         <v>15</v>
@@ -2041,39 +2117,39 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
       <c r="B35">
-        <v>3.489353895187378</v>
+        <v>3.4893538951873779</v>
       </c>
       <c r="C35">
         <v>0.1685492992401123</v>
       </c>
       <c r="D35">
-        <v>0.04872574859564265</v>
+        <v>4.8725748595642653E-2</v>
       </c>
       <c r="E35">
-        <v>-0.01911649218324176</v>
+        <v>-1.9116492183241761E-2</v>
       </c>
       <c r="F35">
-        <v>0.006287328321709666</v>
+        <v>6.2873283217096659E-3</v>
       </c>
       <c r="G35">
-        <v>-0.0009549956706016024</v>
+        <v>-9.5499567060160239E-4</v>
       </c>
       <c r="H35">
-        <v>0.9120360870877642</v>
+        <v>0.91203608708776418</v>
       </c>
       <c r="I35">
-        <v>0.9860665704591628</v>
+        <v>0.98606657045916279</v>
       </c>
       <c r="J35">
-        <v>0.9558043629177222</v>
+        <v>0.95580436291772219</v>
       </c>
       <c r="K35">
-        <v>0.9935693983248405</v>
+        <v>0.99356939832484048</v>
       </c>
       <c r="L35" t="s">
         <v>15</v>
@@ -2088,30 +2164,30 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
       <c r="B36">
-        <v>3.615462779998779</v>
+        <v>3.6154627799987789</v>
       </c>
       <c r="C36">
-        <v>0.1715457439422607</v>
+        <v>0.17154574394226069</v>
       </c>
       <c r="D36">
-        <v>0.05256565282792254</v>
+        <v>5.256565282792254E-2</v>
       </c>
       <c r="E36">
-        <v>-0.0187688706045821</v>
+        <v>-1.87688706045821E-2</v>
       </c>
       <c r="F36">
-        <v>0.007013994369968865</v>
+        <v>7.0139943699688654E-3</v>
       </c>
       <c r="G36">
-        <v>-0.0009099920427752841</v>
+        <v>-9.0999204277528406E-4</v>
       </c>
       <c r="H36">
-        <v>0.896883221037453</v>
+        <v>0.89688322103745299</v>
       </c>
       <c r="I36">
         <v>0.9868897143716111</v>
@@ -2120,7 +2196,7 @@
         <v>0.9474770328332045</v>
       </c>
       <c r="K36">
-        <v>0.993948387592348</v>
+        <v>0.99394838759234805</v>
       </c>
       <c r="L36" t="s">
         <v>15</v>
@@ -2135,39 +2211,39 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
       <c r="B37">
-        <v>0.6771917343139648</v>
+        <v>0.67719173431396484</v>
       </c>
       <c r="C37">
-        <v>0.008975505828857422</v>
+        <v>8.9755058288574219E-3</v>
       </c>
       <c r="D37">
-        <v>0.09317061053865169</v>
+        <v>9.3170610538651694E-2</v>
       </c>
       <c r="E37">
-        <v>-0.06910025238570679</v>
+        <v>-6.9100252385706787E-2</v>
       </c>
       <c r="F37">
-        <v>0.01470223708422651</v>
+        <v>1.4702237084226509E-2</v>
       </c>
       <c r="G37">
-        <v>-0.00792125325125774</v>
+        <v>-7.9212532512577399E-3</v>
       </c>
       <c r="H37">
-        <v>0.7914789661036951</v>
+        <v>0.79147896610369506</v>
       </c>
       <c r="I37">
-        <v>0.8848163911212759</v>
+        <v>0.88481639112127586</v>
       </c>
       <c r="J37">
-        <v>0.8915349071194749</v>
+        <v>0.89153490711947492</v>
       </c>
       <c r="K37">
-        <v>0.9461113787703037</v>
+        <v>0.94611137877030371</v>
       </c>
       <c r="L37" t="s">
         <v>16</v>
@@ -2182,39 +2258,39 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="B38">
-        <v>0.7757406234741211</v>
+        <v>0.77574062347412109</v>
       </c>
       <c r="C38">
-        <v>0.009003877639770508</v>
+        <v>9.0038776397705078E-3</v>
       </c>
       <c r="D38">
-        <v>0.08875882133663436</v>
+        <v>8.8758821336634361E-2</v>
       </c>
       <c r="E38">
-        <v>-0.06834642921064921</v>
+        <v>-6.8346429210649207E-2</v>
       </c>
       <c r="F38">
-        <v>0.0135326266105096</v>
+        <v>1.35326266105096E-2</v>
       </c>
       <c r="G38">
-        <v>-0.007777017068484725</v>
+        <v>-7.7770170684847246E-3</v>
       </c>
       <c r="H38">
-        <v>0.7985522529296875</v>
+        <v>0.79855225292968746</v>
       </c>
       <c r="I38">
-        <v>0.8882822214669845</v>
+        <v>0.88828222146698455</v>
       </c>
       <c r="J38">
-        <v>0.8947945148558883</v>
+        <v>0.89479451485588835</v>
       </c>
       <c r="K38">
-        <v>0.9477089487532898</v>
+        <v>0.94770894875328981</v>
       </c>
       <c r="L38" t="s">
         <v>16</v>
@@ -2229,39 +2305,39 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
       <c r="B39">
-        <v>0.752964973449707</v>
+        <v>0.75296497344970703</v>
       </c>
       <c r="C39">
-        <v>0.009485244750976562</v>
+        <v>9.4852447509765625E-3</v>
       </c>
       <c r="D39">
-        <v>0.09379326324946859</v>
+        <v>9.3793263249468586E-2</v>
       </c>
       <c r="E39">
-        <v>-0.07294349367993601</v>
+        <v>-7.2943493679936008E-2</v>
       </c>
       <c r="F39">
-        <v>0.01436297559981845</v>
+        <v>1.436297559981845E-2</v>
       </c>
       <c r="G39">
-        <v>-0.008834217050600732</v>
+        <v>-8.834217050600732E-3</v>
       </c>
       <c r="H39">
-        <v>0.7888631511159929</v>
+        <v>0.78886315111599292</v>
       </c>
       <c r="I39">
-        <v>0.8725596077591503</v>
+        <v>0.87255960775915031</v>
       </c>
       <c r="J39">
-        <v>0.8905618589025288</v>
+        <v>0.89056185890252881</v>
       </c>
       <c r="K39">
-        <v>0.9398597125696257</v>
+        <v>0.93985971256962575</v>
       </c>
       <c r="L39" t="s">
         <v>16</v>
@@ -2276,36 +2352,36 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
       <c r="B40">
-        <v>0.7335636615753174</v>
+        <v>0.73356366157531738</v>
       </c>
       <c r="C40">
-        <v>0.008999109268188477</v>
+        <v>8.9991092681884766E-3</v>
       </c>
       <c r="D40">
-        <v>0.08867145065907288</v>
+        <v>8.8671450659072878E-2</v>
       </c>
       <c r="E40">
-        <v>-0.06868707877902828</v>
+        <v>-6.8687078779028285E-2</v>
       </c>
       <c r="F40">
-        <v>0.01330977500452479</v>
+        <v>1.330977500452479E-2</v>
       </c>
       <c r="G40">
-        <v>-0.007822133160964568</v>
+        <v>-7.8221331609645683E-3</v>
       </c>
       <c r="H40">
-        <v>0.8137873784423095</v>
+        <v>0.81378737844230953</v>
       </c>
       <c r="I40">
-        <v>0.8858747273810282</v>
+        <v>0.88587472738102824</v>
       </c>
       <c r="J40">
-        <v>0.9050305888822774</v>
+        <v>0.90503058888227739</v>
       </c>
       <c r="K40">
         <v>0.9465723306638516</v>
@@ -2323,39 +2399,39 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
       <c r="B41">
-        <v>0.7412481307983398</v>
+        <v>0.74124813079833984</v>
       </c>
       <c r="C41">
-        <v>0.00997471809387207</v>
+        <v>9.9747180938720703E-3</v>
       </c>
       <c r="D41">
-        <v>0.09385442455136996</v>
+        <v>9.3854424551369955E-2</v>
       </c>
       <c r="E41">
-        <v>-0.06867988596308648</v>
+        <v>-6.8679885963086482E-2</v>
       </c>
       <c r="F41">
-        <v>0.01479564869258967</v>
+        <v>1.4795648692589669E-2</v>
       </c>
       <c r="G41">
-        <v>-0.007854648805114906</v>
+        <v>-7.8546488051149058E-3</v>
       </c>
       <c r="H41">
-        <v>0.7824806300995022</v>
+        <v>0.78248063009950219</v>
       </c>
       <c r="I41">
-        <v>0.8868378134036392</v>
+        <v>0.88683781340363921</v>
       </c>
       <c r="J41">
-        <v>0.8857473410797757</v>
+        <v>0.88574734107977571</v>
       </c>
       <c r="K41">
-        <v>0.9470426049553771</v>
+        <v>0.94704260495537707</v>
       </c>
       <c r="L41" t="s">
         <v>16</v>
@@ -2370,7 +2446,7 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0</v>
       </c>
@@ -2381,28 +2457,28 @@
         <v>0.2378385066986084</v>
       </c>
       <c r="D42">
-        <v>0.1587934692700388</v>
+        <v>0.15879346927003879</v>
       </c>
       <c r="E42">
-        <v>-0.1460428916664064</v>
+        <v>-0.14604289166640641</v>
       </c>
       <c r="F42">
-        <v>0.03857467748985647</v>
+        <v>3.857467748985647E-2</v>
       </c>
       <c r="G42">
-        <v>-0.03288650586400083</v>
+        <v>-3.2886505864000833E-2</v>
       </c>
       <c r="H42">
-        <v>0.4528974341577511</v>
+        <v>0.45289743415775108</v>
       </c>
       <c r="I42">
-        <v>0.5217945559024409</v>
+        <v>0.52179455590244095</v>
       </c>
       <c r="J42">
-        <v>0.6758161507567118</v>
+        <v>0.67581615075671175</v>
       </c>
       <c r="K42">
-        <v>0.7280575739647903</v>
+        <v>0.72805757396479032</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
@@ -2417,7 +2493,7 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2425,31 +2501,31 @@
         <v>1.381780624389648</v>
       </c>
       <c r="C43">
-        <v>0.2094674110412598</v>
+        <v>0.20946741104125979</v>
       </c>
       <c r="D43">
-        <v>0.1541446060021533</v>
+        <v>0.15414460600215329</v>
       </c>
       <c r="E43">
-        <v>-0.1464656450907542</v>
+        <v>-0.14646564509075419</v>
       </c>
       <c r="F43">
-        <v>0.03663043614450252</v>
+        <v>3.6630436144502523E-2</v>
       </c>
       <c r="G43">
-        <v>-0.03317187241508548</v>
+        <v>-3.3171872415085478E-2</v>
       </c>
       <c r="H43">
-        <v>0.4547164384346298</v>
+        <v>0.45471643843462978</v>
       </c>
       <c r="I43">
-        <v>0.5234820930236148</v>
+        <v>0.52348209302361481</v>
       </c>
       <c r="J43">
-        <v>0.6752436180161487</v>
+        <v>0.67524361801614874</v>
       </c>
       <c r="K43">
-        <v>0.7281795657751249</v>
+        <v>0.72817956577512488</v>
       </c>
       <c r="L43" t="s">
         <v>17</v>
@@ -2464,7 +2540,7 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
@@ -2472,31 +2548,31 @@
         <v>1.340986013412476</v>
       </c>
       <c r="C44">
-        <v>0.2124419212341309</v>
+        <v>0.21244192123413089</v>
       </c>
       <c r="D44">
-        <v>0.1537072439640818</v>
+        <v>0.15370724396408181</v>
       </c>
       <c r="E44">
-        <v>-0.1472892216891803</v>
+        <v>-0.14728922168918029</v>
       </c>
       <c r="F44">
-        <v>0.03603963955397927</v>
+        <v>3.603963955397927E-2</v>
       </c>
       <c r="G44">
-        <v>-0.03335797450059352</v>
+        <v>-3.3357974500593517E-2</v>
       </c>
       <c r="H44">
-        <v>0.4702145194454839</v>
+        <v>0.47021451944548392</v>
       </c>
       <c r="I44">
-        <v>0.5187854984356743</v>
+        <v>0.51878549843567434</v>
       </c>
       <c r="J44">
-        <v>0.6882321440347248</v>
+        <v>0.68823214403472477</v>
       </c>
       <c r="K44">
-        <v>0.723992905104092</v>
+        <v>0.72399290510409198</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
@@ -2511,39 +2587,39 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3</v>
       </c>
       <c r="B45">
-        <v>1.340621471405029</v>
+        <v>1.3406214714050291</v>
       </c>
       <c r="C45">
-        <v>0.2119581699371338</v>
+        <v>0.21195816993713379</v>
       </c>
       <c r="D45">
-        <v>0.1552823533362158</v>
+        <v>0.15528235333621579</v>
       </c>
       <c r="E45">
-        <v>-0.1467704825959756</v>
+        <v>-0.14677048259597561</v>
       </c>
       <c r="F45">
-        <v>0.03651208678356151</v>
+        <v>3.6512086783561513E-2</v>
       </c>
       <c r="G45">
-        <v>-0.03321513418253374</v>
+        <v>-3.3215134182533738E-2</v>
       </c>
       <c r="H45">
-        <v>0.4891715753123174</v>
+        <v>0.48917157531231742</v>
       </c>
       <c r="I45">
-        <v>0.5153897069185215</v>
+        <v>0.51538970691852148</v>
       </c>
       <c r="J45">
-        <v>0.7032287723590963</v>
+        <v>0.70322877235909631</v>
       </c>
       <c r="K45">
-        <v>0.7229651416580384</v>
+        <v>0.72296514165803838</v>
       </c>
       <c r="L45" t="s">
         <v>17</v>
@@ -2558,7 +2634,7 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4</v>
       </c>
@@ -2569,28 +2645,28 @@
         <v>0.2044835090637207</v>
       </c>
       <c r="D46">
-        <v>0.1524162267283593</v>
+        <v>0.15241622672835931</v>
       </c>
       <c r="E46">
-        <v>-0.1476440969362509</v>
+        <v>-0.14764409693625091</v>
       </c>
       <c r="F46">
-        <v>0.0345318034592384</v>
+        <v>3.4531803459238397E-2</v>
       </c>
       <c r="G46">
-        <v>-0.03336902608381604</v>
+        <v>-3.336902608381604E-2</v>
       </c>
       <c r="H46">
-        <v>0.4923280292709717</v>
+        <v>0.49232802927097169</v>
       </c>
       <c r="I46">
-        <v>0.5192513312910135</v>
+        <v>0.51925133129101353</v>
       </c>
       <c r="J46">
-        <v>0.7059975205294362</v>
+        <v>0.70599752052943621</v>
       </c>
       <c r="K46">
-        <v>0.7264560498443242</v>
+        <v>0.72645604984432421</v>
       </c>
       <c r="L46" t="s">
         <v>17</v>
@@ -2605,36 +2681,36 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0</v>
       </c>
       <c r="B47">
-        <v>1.758808135986328</v>
+        <v>1.7588081359863279</v>
       </c>
       <c r="C47">
-        <v>0.08474278450012207</v>
+        <v>8.474278450012207E-2</v>
       </c>
       <c r="D47">
-        <v>0.04869903448275888</v>
+        <v>4.8699034482758877E-2</v>
       </c>
       <c r="E47">
-        <v>-0.01859446527570138</v>
+        <v>-1.8594465275701379E-2</v>
       </c>
       <c r="F47">
-        <v>0.006705189187475225</v>
+        <v>6.7051891874752249E-3</v>
       </c>
       <c r="G47">
-        <v>-0.0009360611362787186</v>
+        <v>-9.3606113627871864E-4</v>
       </c>
       <c r="H47">
-        <v>0.906329432092938</v>
+        <v>0.90632943209293804</v>
       </c>
       <c r="I47">
-        <v>0.986485402807281</v>
+        <v>0.98648540280728103</v>
       </c>
       <c r="J47">
-        <v>0.9524805394519895</v>
+        <v>0.95248053945198952</v>
       </c>
       <c r="K47">
         <v>0.9936852258153388</v>
@@ -2652,39 +2728,39 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
       <c r="B48">
-        <v>1.79172158241272</v>
+        <v>1.7917215824127199</v>
       </c>
       <c r="C48">
-        <v>0.08711338043212891</v>
+        <v>8.7113380432128906E-2</v>
       </c>
       <c r="D48">
-        <v>0.05022944031653313</v>
+        <v>5.0229440316533133E-2</v>
       </c>
       <c r="E48">
-        <v>-0.01833762858440751</v>
+        <v>-1.833762858440751E-2</v>
       </c>
       <c r="F48">
-        <v>0.00647210711223257</v>
+        <v>6.47210711223257E-3</v>
       </c>
       <c r="G48">
-        <v>-0.0009417554437147175</v>
+        <v>-9.4175544371471749E-4</v>
       </c>
       <c r="H48">
-        <v>0.9047580804893721</v>
+        <v>0.90475808048937212</v>
       </c>
       <c r="I48">
-        <v>0.9865797047582784</v>
+        <v>0.98657970475827839</v>
       </c>
       <c r="J48">
-        <v>0.9522035916526511</v>
+        <v>0.95220359165265112</v>
       </c>
       <c r="K48">
-        <v>0.9937140889911067</v>
+        <v>0.99371408899110669</v>
       </c>
       <c r="L48" t="s">
         <v>15</v>
@@ -2699,36 +2775,36 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
       <c r="B49">
-        <v>1.622740030288696</v>
+        <v>1.6227400302886961</v>
       </c>
       <c r="C49">
-        <v>0.08673572540283203</v>
+        <v>8.6735725402832031E-2</v>
       </c>
       <c r="D49">
-        <v>0.04933026615444806</v>
+        <v>4.9330266154448063E-2</v>
       </c>
       <c r="E49">
-        <v>-0.01841592060398049</v>
+        <v>-1.8415920603980489E-2</v>
       </c>
       <c r="F49">
-        <v>0.006408528758371608</v>
+        <v>6.4085287583716078E-3</v>
       </c>
       <c r="G49">
-        <v>-0.0009260364530263484</v>
+        <v>-9.260364530263484E-4</v>
       </c>
       <c r="H49">
         <v>0.9053161170591788</v>
       </c>
       <c r="I49">
-        <v>0.9868028262448069</v>
+        <v>0.98680282624480686</v>
       </c>
       <c r="J49">
-        <v>0.9521160384176617</v>
+        <v>0.95211603841766168</v>
       </c>
       <c r="K49">
         <v>0.9938455204701464</v>
@@ -2746,7 +2822,7 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2757,28 +2833,28 @@
         <v>0.1187191009521484</v>
       </c>
       <c r="D50">
-        <v>0.04896027236548531</v>
+        <v>4.8960272365485308E-2</v>
       </c>
       <c r="E50">
-        <v>-0.01851626962906779</v>
+        <v>-1.8516269629067789E-2</v>
       </c>
       <c r="F50">
-        <v>0.006722989293694805</v>
+        <v>6.722989293694805E-3</v>
       </c>
       <c r="G50">
-        <v>-0.0009143467746556538</v>
+        <v>-9.1434677465565377E-4</v>
       </c>
       <c r="H50">
-        <v>0.9071938655696286</v>
+        <v>0.90719386556962855</v>
       </c>
       <c r="I50">
-        <v>0.9867593727379882</v>
+        <v>0.98675937273798819</v>
       </c>
       <c r="J50">
-        <v>0.9538155458227788</v>
+        <v>0.95381554582277883</v>
       </c>
       <c r="K50">
-        <v>0.9938303290858052</v>
+        <v>0.99383032908580515</v>
       </c>
       <c r="L50" t="s">
         <v>15</v>
@@ -2793,7 +2869,7 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4</v>
       </c>
@@ -2801,31 +2877,31 @@
         <v>1.831610441207886</v>
       </c>
       <c r="C51">
-        <v>0.09972190856933594</v>
+        <v>9.9721908569335938E-2</v>
       </c>
       <c r="D51">
-        <v>0.05154360378183187</v>
+        <v>5.154360378183187E-2</v>
       </c>
       <c r="E51">
-        <v>-0.01837452059363049</v>
+        <v>-1.837452059363049E-2</v>
       </c>
       <c r="F51">
-        <v>0.007043116909489401</v>
+        <v>7.0431169094894008E-3</v>
       </c>
       <c r="G51">
-        <v>-0.0009349466679435584</v>
+        <v>-9.349466679435584E-4</v>
       </c>
       <c r="H51">
-        <v>0.8973587477662667</v>
+        <v>0.89735874776626667</v>
       </c>
       <c r="I51">
         <v>0.9866471210751131</v>
       </c>
       <c r="J51">
-        <v>0.9475727346109004</v>
+        <v>0.94757273461090041</v>
       </c>
       <c r="K51">
-        <v>0.9937642368769349</v>
+        <v>0.99376423687693494</v>
       </c>
       <c r="L51" t="s">
         <v>15</v>
@@ -2840,7 +2916,7 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
@@ -2848,31 +2924,31 @@
         <v>2.26582932472229</v>
       </c>
       <c r="C52">
-        <v>0.005980014801025391</v>
+        <v>5.9800148010253906E-3</v>
       </c>
       <c r="D52">
         <v>0.1381825469912126</v>
       </c>
       <c r="E52">
-        <v>-0.1232088540275214</v>
+        <v>-0.12320885402752139</v>
       </c>
       <c r="F52">
-        <v>0.02872163488013781</v>
+        <v>2.8721634880137809E-2</v>
       </c>
       <c r="G52">
-        <v>-0.02265401502278036</v>
+        <v>-2.265401502278036E-2</v>
       </c>
       <c r="H52">
-        <v>0.5987627231358073</v>
+        <v>0.59876272313580725</v>
       </c>
       <c r="I52">
-        <v>0.6729274659902996</v>
+        <v>0.67292746599029962</v>
       </c>
       <c r="J52">
-        <v>0.7782672118327162</v>
+        <v>0.77826721183271619</v>
       </c>
       <c r="K52">
-        <v>0.8314421322458843</v>
+        <v>0.83144213224588426</v>
       </c>
       <c r="L52" t="s">
         <v>16</v>
@@ -2887,39 +2963,39 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1</v>
       </c>
       <c r="B53">
-        <v>2.576067924499512</v>
+        <v>2.5760679244995122</v>
       </c>
       <c r="C53">
-        <v>0.007012844085693359</v>
+        <v>7.0128440856933594E-3</v>
       </c>
       <c r="D53">
-        <v>0.1328612628632888</v>
+        <v>0.13286126286328881</v>
       </c>
       <c r="E53">
         <v>-0.1237368678465863</v>
       </c>
       <c r="F53">
-        <v>0.02604966150042821</v>
+        <v>2.6049661500428211E-2</v>
       </c>
       <c r="G53">
-        <v>-0.02278508252999966</v>
+        <v>-2.278508252999966E-2</v>
       </c>
       <c r="H53">
-        <v>0.6166596564488793</v>
+        <v>0.61665965644887932</v>
       </c>
       <c r="I53">
-        <v>0.6753057954691059</v>
+        <v>0.67530579546910585</v>
       </c>
       <c r="J53">
-        <v>0.7909847148665596</v>
+        <v>0.79098471486655964</v>
       </c>
       <c r="K53">
-        <v>0.8324722944732492</v>
+        <v>0.83247229447324922</v>
       </c>
       <c r="L53" t="s">
         <v>16</v>
@@ -2934,27 +3010,27 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2</v>
       </c>
       <c r="B54">
-        <v>2.835512161254883</v>
+        <v>2.8355121612548828</v>
       </c>
       <c r="C54">
-        <v>0.00999903678894043</v>
+        <v>9.9990367889404297E-3</v>
       </c>
       <c r="D54">
-        <v>0.1309705746079319</v>
+        <v>0.13097057460793191</v>
       </c>
       <c r="E54">
         <v>-0.1240935791968764</v>
       </c>
       <c r="F54">
-        <v>0.02538218851671643</v>
+        <v>2.538218851671643E-2</v>
       </c>
       <c r="G54">
-        <v>-0.02281618731660229</v>
+        <v>-2.2816187316602291E-2</v>
       </c>
       <c r="H54">
         <v>0.6249865988103479</v>
@@ -2963,10 +3039,10 @@
         <v>0.6748408904809422</v>
       </c>
       <c r="J54">
-        <v>0.7956765741127916</v>
+        <v>0.79567657411279158</v>
       </c>
       <c r="K54">
-        <v>0.8323700489140449</v>
+        <v>0.83237004891404487</v>
       </c>
       <c r="L54" t="s">
         <v>16</v>
@@ -2981,7 +3057,7 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2989,31 +3065,31 @@
         <v>2.887971162796021</v>
       </c>
       <c r="C55">
-        <v>0.007977962493896484</v>
+        <v>7.9779624938964844E-3</v>
       </c>
       <c r="D55">
-        <v>0.1366129135131748</v>
+        <v>0.13661291351317481</v>
       </c>
       <c r="E55">
         <v>-0.1244292551646231</v>
       </c>
       <c r="F55">
-        <v>0.02705499732322487</v>
+        <v>2.7054997323224871E-2</v>
       </c>
       <c r="G55">
-        <v>-0.02298376696681836</v>
+        <v>-2.2983766966818361E-2</v>
       </c>
       <c r="H55">
-        <v>0.6265248078042635</v>
+        <v>0.62652480780426345</v>
       </c>
       <c r="I55">
-        <v>0.6671727839810135</v>
+        <v>0.66717278398101354</v>
       </c>
       <c r="J55">
-        <v>0.8010359917234859</v>
+        <v>0.80103599172348594</v>
       </c>
       <c r="K55">
-        <v>0.8281758555844014</v>
+        <v>0.82817585558440143</v>
       </c>
       <c r="L55" t="s">
         <v>16</v>
@@ -3028,15 +3104,15 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>4</v>
       </c>
       <c r="B56">
-        <v>3.161211729049683</v>
+        <v>3.1612117290496831</v>
       </c>
       <c r="C56">
-        <v>0.006980180740356445</v>
+        <v>6.9801807403564453E-3</v>
       </c>
       <c r="D56">
         <v>0.1345842015523942</v>
@@ -3045,22 +3121,22 @@
         <v>-0.1230440473376912</v>
       </c>
       <c r="F56">
-        <v>0.02679600571285465</v>
+        <v>2.6796005712854652E-2</v>
       </c>
       <c r="G56">
-        <v>-0.02259895136097365</v>
+        <v>-2.2598951360973649E-2</v>
       </c>
       <c r="H56">
-        <v>0.6094945438824095</v>
+        <v>0.60949454388240953</v>
       </c>
       <c r="I56">
-        <v>0.6772424869792624</v>
+        <v>0.67724248697926237</v>
       </c>
       <c r="J56">
         <v>0.788759475544203</v>
       </c>
       <c r="K56">
-        <v>0.8334909973198095</v>
+        <v>0.83349099731980947</v>
       </c>
       <c r="L56" t="s">
         <v>16</v>
@@ -3075,39 +3151,39 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0</v>
       </c>
       <c r="B57">
-        <v>14.25205779075623</v>
+        <v>14.252057790756229</v>
       </c>
       <c r="C57">
-        <v>0.166628360748291</v>
+        <v>0.16662836074829099</v>
       </c>
       <c r="D57">
-        <v>0.1248960242534976</v>
+        <v>0.12489602425349761</v>
       </c>
       <c r="E57">
-        <v>-0.08839375439919023</v>
+        <v>-8.8393754399190227E-2</v>
       </c>
       <c r="F57">
-        <v>0.02567051047184124</v>
+        <v>2.567051047184124E-2</v>
       </c>
       <c r="G57">
-        <v>-0.009127024290502217</v>
+        <v>-9.127024290502217E-3</v>
       </c>
       <c r="H57">
-        <v>0.6413865101892871</v>
+        <v>0.64138651018928705</v>
       </c>
       <c r="I57">
-        <v>0.8682264949652059</v>
+        <v>0.86822649496520587</v>
       </c>
       <c r="J57">
-        <v>0.8075770906579051</v>
+        <v>0.80757709065790506</v>
       </c>
       <c r="K57">
-        <v>0.9387649334997306</v>
+        <v>0.93876493349973056</v>
       </c>
       <c r="L57" t="s">
         <v>17</v>
@@ -3122,7 +3198,7 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3130,31 +3206,31 @@
         <v>14.40631365776062</v>
       </c>
       <c r="C58">
-        <v>0.1810095310211182</v>
+        <v>0.18100953102111819</v>
       </c>
       <c r="D58">
-        <v>0.1269870524219471</v>
+        <v>0.12698705242194711</v>
       </c>
       <c r="E58">
-        <v>-0.08873812729047129</v>
+        <v>-8.8738127290471286E-2</v>
       </c>
       <c r="F58">
-        <v>0.02738416210360575</v>
+        <v>2.7384162103605749E-2</v>
       </c>
       <c r="G58">
-        <v>-0.009183642188975836</v>
+        <v>-9.1836421889758355E-3</v>
       </c>
       <c r="H58">
-        <v>0.5970214772854823</v>
+        <v>0.59702147728548227</v>
       </c>
       <c r="I58">
-        <v>0.8691303667072602</v>
+        <v>0.86913036670726018</v>
       </c>
       <c r="J58">
-        <v>0.7883011663648457</v>
+        <v>0.78830116636484571</v>
       </c>
       <c r="K58">
-        <v>0.9396132972358319</v>
+        <v>0.93961329723583187</v>
       </c>
       <c r="L58" t="s">
         <v>17</v>
@@ -3169,39 +3245,39 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2</v>
       </c>
       <c r="B59">
-        <v>15.27841782569885</v>
+        <v>15.278417825698851</v>
       </c>
       <c r="C59">
         <v>0.1894495487213135</v>
       </c>
       <c r="D59">
-        <v>0.127413735086806</v>
+        <v>0.12741373508680601</v>
       </c>
       <c r="E59">
-        <v>-0.0890847692592867</v>
+        <v>-8.9084769259286697E-2</v>
       </c>
       <c r="F59">
-        <v>0.02875812897767733</v>
+        <v>2.8758128977677329E-2</v>
       </c>
       <c r="G59">
-        <v>-0.009244832325647779</v>
+        <v>-9.2448323256477793E-3</v>
       </c>
       <c r="H59">
-        <v>0.5751082002772616</v>
+        <v>0.57510820027726162</v>
       </c>
       <c r="I59">
-        <v>0.8682496157246538</v>
+        <v>0.86824961572465376</v>
       </c>
       <c r="J59">
-        <v>0.78063299971328</v>
+        <v>0.78063299971328004</v>
       </c>
       <c r="K59">
-        <v>0.9389355268700665</v>
+        <v>0.93893552687006654</v>
       </c>
       <c r="L59" t="s">
         <v>17</v>
@@ -3216,7 +3292,7 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3</v>
       </c>
@@ -3224,31 +3300,31 @@
         <v>14.2157576084137</v>
       </c>
       <c r="C60">
-        <v>0.1725735664367676</v>
+        <v>0.17257356643676761</v>
       </c>
       <c r="D60">
         <v>0.1257348919267586</v>
       </c>
       <c r="E60">
-        <v>-0.08941329310010321</v>
+        <v>-8.9413293100103208E-2</v>
       </c>
       <c r="F60">
-        <v>0.0277610645724339</v>
+        <v>2.7761064572433901E-2</v>
       </c>
       <c r="G60">
-        <v>-0.009308299451064548</v>
+        <v>-9.3082994510645476E-3</v>
       </c>
       <c r="H60">
-        <v>0.6167780464776567</v>
+        <v>0.61677804647765666</v>
       </c>
       <c r="I60">
-        <v>0.8652068045833595</v>
+        <v>0.86520680458335952</v>
       </c>
       <c r="J60">
-        <v>0.7961656000568971</v>
+        <v>0.79616560005689707</v>
       </c>
       <c r="K60">
-        <v>0.9368410330467608</v>
+        <v>0.93684103304676081</v>
       </c>
       <c r="L60" t="s">
         <v>17</v>
@@ -3263,12 +3339,12 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>4</v>
       </c>
       <c r="B61">
-        <v>13.63004279136658</v>
+        <v>13.630042791366581</v>
       </c>
       <c r="C61">
         <v>0.1674914360046387</v>
@@ -3277,25 +3353,25 @@
         <v>0.1287001788290357</v>
       </c>
       <c r="E61">
-        <v>-0.08899340030702273</v>
+        <v>-8.8993400307022727E-2</v>
       </c>
       <c r="F61">
-        <v>0.0298105679259748</v>
+        <v>2.98105679259748E-2</v>
       </c>
       <c r="G61">
-        <v>-0.009212043670018221</v>
+        <v>-9.2120436700182211E-3</v>
       </c>
       <c r="H61">
         <v>0.5655625114502546</v>
       </c>
       <c r="I61">
-        <v>0.8684338818522326</v>
+        <v>0.86843388185223258</v>
       </c>
       <c r="J61">
-        <v>0.7690208745753839</v>
+        <v>0.76902087457538393</v>
       </c>
       <c r="K61">
-        <v>0.9387629926826817</v>
+        <v>0.93876299268268171</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
@@ -3307,6 +3383,2648 @@
         <v>60</v>
       </c>
       <c r="O61">
+        <v>8519</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16B72EE-8CA7-40AC-857B-52CE539059A3}">
+  <dimension ref="A1:M61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6.936266690709525E-2</v>
+      </c>
+      <c r="C2">
+        <f>Sheet1!E2*-1</f>
+        <v>4.325329798002886E-2</v>
+      </c>
+      <c r="D2">
+        <v>1.1955123465908671E-2</v>
+      </c>
+      <c r="E2">
+        <f>Sheet1!G2*-1</f>
+        <v>5.9705195022957342E-3</v>
+      </c>
+      <c r="F2">
+        <v>0.83546472689654694</v>
+      </c>
+      <c r="G2">
+        <v>0.91351918142905253</v>
+      </c>
+      <c r="H2">
+        <v>0.91423834946424665</v>
+      </c>
+      <c r="I2">
+        <v>0.95618766984825365</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2">
+        <v>41</v>
+      </c>
+      <c r="M2">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7.3789193706009018E-2</v>
+      </c>
+      <c r="C3">
+        <f>Sheet1!E3*-1</f>
+        <v>4.225535240248933E-2</v>
+      </c>
+      <c r="D3">
+        <v>1.350750858389837E-2</v>
+      </c>
+      <c r="E3">
+        <f>Sheet1!G3*-1</f>
+        <v>5.7708255126592382E-3</v>
+      </c>
+      <c r="F3">
+        <v>0.80270521568294984</v>
+      </c>
+      <c r="G3">
+        <v>0.91766260381637155</v>
+      </c>
+      <c r="H3">
+        <v>0.89724309498244548</v>
+      </c>
+      <c r="I3">
+        <v>0.95832164280130105</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>41</v>
+      </c>
+      <c r="M3">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7.0685498180380862E-2</v>
+      </c>
+      <c r="C4">
+        <f>Sheet1!E4*-1</f>
+        <v>4.3376185871103992E-2</v>
+      </c>
+      <c r="D4">
+        <v>1.2417295769197039E-2</v>
+      </c>
+      <c r="E4">
+        <f>Sheet1!G4*-1</f>
+        <v>5.8874834850985262E-3</v>
+      </c>
+      <c r="F4">
+        <v>0.81796499632922381</v>
+      </c>
+      <c r="G4">
+        <v>0.91599603081204106</v>
+      </c>
+      <c r="H4">
+        <v>0.90497150323679698</v>
+      </c>
+      <c r="I4">
+        <v>0.95749944454505997</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4">
+        <v>41</v>
+      </c>
+      <c r="M4">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>6.8209082001392765E-2</v>
+      </c>
+      <c r="C5">
+        <f>Sheet1!E5*-1</f>
+        <v>4.3298409694817352E-2</v>
+      </c>
+      <c r="D5">
+        <v>1.1831135639917599E-2</v>
+      </c>
+      <c r="E5">
+        <f>Sheet1!G5*-1</f>
+        <v>5.9271655970631982E-3</v>
+      </c>
+      <c r="F5">
+        <v>0.83599326021093878</v>
+      </c>
+      <c r="G5">
+        <v>0.91433332732832773</v>
+      </c>
+      <c r="H5">
+        <v>0.91469689392419384</v>
+      </c>
+      <c r="I5">
+        <v>0.95667635271472251</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5">
+        <v>41</v>
+      </c>
+      <c r="M5">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>7.0345236547571591E-2</v>
+      </c>
+      <c r="C6">
+        <f>Sheet1!E6*-1</f>
+        <v>4.345134352919007E-2</v>
+      </c>
+      <c r="D6">
+        <v>1.1655833011577721E-2</v>
+      </c>
+      <c r="E6">
+        <f>Sheet1!G6*-1</f>
+        <v>5.9782481353160364E-3</v>
+      </c>
+      <c r="F6">
+        <v>0.82594168262419154</v>
+      </c>
+      <c r="G6">
+        <v>0.91517826126032065</v>
+      </c>
+      <c r="H6">
+        <v>0.908936286964377</v>
+      </c>
+      <c r="I6">
+        <v>0.95706419889444649</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <v>41</v>
+      </c>
+      <c r="M6">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0.13114973959271081</v>
+      </c>
+      <c r="C7">
+        <f>Sheet1!E7*-1</f>
+        <v>0.1195130104289932</v>
+      </c>
+      <c r="D7">
+        <v>2.689144339225695E-2</v>
+      </c>
+      <c r="E7">
+        <f>Sheet1!G7*-1</f>
+        <v>2.3128018457389599E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.62990001773647541</v>
+      </c>
+      <c r="G7">
+        <v>0.66499900597427741</v>
+      </c>
+      <c r="H7">
+        <v>0.79859242627946558</v>
+      </c>
+      <c r="I7">
+        <v>0.82231649470825574</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7">
+        <v>41</v>
+      </c>
+      <c r="M7">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0.13442162316914591</v>
+      </c>
+      <c r="C8">
+        <f>Sheet1!E8*-1</f>
+        <v>0.12205795469240351</v>
+      </c>
+      <c r="D8">
+        <v>2.8468322045779669E-2</v>
+      </c>
+      <c r="E8">
+        <f>Sheet1!G8*-1</f>
+        <v>2.4094858005498401E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.58418301768945335</v>
+      </c>
+      <c r="G8">
+        <v>0.65621766500564394</v>
+      </c>
+      <c r="H8">
+        <v>0.7657325744030361</v>
+      </c>
+      <c r="I8">
+        <v>0.81714670601794892</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8">
+        <v>41</v>
+      </c>
+      <c r="M8">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>0.1306539538545301</v>
+      </c>
+      <c r="C9">
+        <f>Sheet1!E9*-1</f>
+        <v>0.1243811284529808</v>
+      </c>
+      <c r="D9">
+        <v>2.6388847820453559E-2</v>
+      </c>
+      <c r="E9">
+        <f>Sheet1!G9*-1</f>
+        <v>2.4835009168691038E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.6131449150321362</v>
+      </c>
+      <c r="G9">
+        <v>0.64564837417043086</v>
+      </c>
+      <c r="H9">
+        <v>0.78643766313583452</v>
+      </c>
+      <c r="I9">
+        <v>0.81060742159616006</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9">
+        <v>41</v>
+      </c>
+      <c r="M9">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>0.13370907038888319</v>
+      </c>
+      <c r="C10">
+        <f>Sheet1!E10*-1</f>
+        <v>0.12202554336286001</v>
+      </c>
+      <c r="D10">
+        <v>2.784001028753099E-2</v>
+      </c>
+      <c r="E10">
+        <f>Sheet1!G10*-1</f>
+        <v>2.399860856866411E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.61407345313947548</v>
+      </c>
+      <c r="G10">
+        <v>0.65314265121156923</v>
+      </c>
+      <c r="H10">
+        <v>0.78868368294411362</v>
+      </c>
+      <c r="I10">
+        <v>0.81522210353806435</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10">
+        <v>41</v>
+      </c>
+      <c r="M10">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>0.13495971003773069</v>
+      </c>
+      <c r="C11">
+        <f>Sheet1!E11*-1</f>
+        <v>0.1239110258731998</v>
+      </c>
+      <c r="D11">
+        <v>2.8907945661298541E-2</v>
+      </c>
+      <c r="E11">
+        <f>Sheet1!G11*-1</f>
+        <v>2.472217826232502E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.56831327494148387</v>
+      </c>
+      <c r="G11">
+        <v>0.64923199937871789</v>
+      </c>
+      <c r="H11">
+        <v>0.75686701370178544</v>
+      </c>
+      <c r="I11">
+        <v>0.81249527754710082</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11">
+        <v>41</v>
+      </c>
+      <c r="M11">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0.1690928870670462</v>
+      </c>
+      <c r="C12">
+        <f>Sheet1!E12*-1</f>
+        <v>0.15949995297460209</v>
+      </c>
+      <c r="D12">
+        <v>4.2766651802610897E-2</v>
+      </c>
+      <c r="E12">
+        <f>Sheet1!G12*-1</f>
+        <v>3.908189397470134E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.41141362913327001</v>
+      </c>
+      <c r="G12">
+        <v>0.4339128812935682</v>
+      </c>
+      <c r="H12">
+        <v>0.64508722044546585</v>
+      </c>
+      <c r="I12">
+        <v>0.66162578221164625</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12">
+        <v>41</v>
+      </c>
+      <c r="M12">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0.1648745347122339</v>
+      </c>
+      <c r="C13">
+        <f>Sheet1!E13*-1</f>
+        <v>0.1601771945140727</v>
+      </c>
+      <c r="D13">
+        <v>4.1423455535210471E-2</v>
+      </c>
+      <c r="E13">
+        <f>Sheet1!G13*-1</f>
+        <v>3.9328506475801828E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.39495639223739171</v>
+      </c>
+      <c r="G13">
+        <v>0.43886592795000218</v>
+      </c>
+      <c r="H13">
+        <v>0.62956889903695346</v>
+      </c>
+      <c r="I13">
+        <v>0.66518550756985362</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13">
+        <v>41</v>
+      </c>
+      <c r="M13">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>0.16191363366206329</v>
+      </c>
+      <c r="C14">
+        <f>Sheet1!E14*-1</f>
+        <v>0.16155621215343269</v>
+      </c>
+      <c r="D14">
+        <v>3.990243956618484E-2</v>
+      </c>
+      <c r="E14">
+        <f>Sheet1!G14*-1</f>
+        <v>4.0032147001489028E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.41503843768287052</v>
+      </c>
+      <c r="G14">
+        <v>0.4288121144199436</v>
+      </c>
+      <c r="H14">
+        <v>0.64502897988868479</v>
+      </c>
+      <c r="I14">
+        <v>0.65677408635100143</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14">
+        <v>41</v>
+      </c>
+      <c r="M14">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>0.16702840220801399</v>
+      </c>
+      <c r="C15">
+        <f>Sheet1!E15*-1</f>
+        <v>0.16007961119821629</v>
+      </c>
+      <c r="D15">
+        <v>4.2487296407175967E-2</v>
+      </c>
+      <c r="E15">
+        <f>Sheet1!G15*-1</f>
+        <v>3.9309065187651843E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.41102839336216462</v>
+      </c>
+      <c r="G15">
+        <v>0.43185713891163768</v>
+      </c>
+      <c r="H15">
+        <v>0.64271411065208439</v>
+      </c>
+      <c r="I15">
+        <v>0.66001710284164039</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15">
+        <v>41</v>
+      </c>
+      <c r="M15">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>0.16376476841114801</v>
+      </c>
+      <c r="C16">
+        <f>Sheet1!E16*-1</f>
+        <v>0.160674921421189</v>
+      </c>
+      <c r="D16">
+        <v>4.125520882869628E-2</v>
+      </c>
+      <c r="E16">
+        <f>Sheet1!G16*-1</f>
+        <v>3.9338571952906118E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.3839297264659004</v>
+      </c>
+      <c r="G16">
+        <v>0.44184884985455919</v>
+      </c>
+      <c r="H16">
+        <v>0.61995826337702331</v>
+      </c>
+      <c r="I16">
+        <v>0.66783519396260582</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16">
+        <v>41</v>
+      </c>
+      <c r="M16">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>5.5162447812484749E-2</v>
+      </c>
+      <c r="C17">
+        <f>Sheet1!E17*-1</f>
+        <v>2.7440611977072631E-2</v>
+      </c>
+      <c r="D17">
+        <v>7.4962992217859556E-3</v>
+      </c>
+      <c r="E17">
+        <f>Sheet1!G17*-1</f>
+        <v>1.9823708117197641E-3</v>
+      </c>
+      <c r="F17">
+        <v>0.89594171067628969</v>
+      </c>
+      <c r="G17">
+        <v>0.9714164832860227</v>
+      </c>
+      <c r="H17">
+        <v>0.94722336023987252</v>
+      </c>
+      <c r="I17">
+        <v>0.98669471296673106</v>
+      </c>
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17">
+        <v>60</v>
+      </c>
+      <c r="M17">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>5.6229757803040292E-2</v>
+      </c>
+      <c r="C18">
+        <f>Sheet1!E18*-1</f>
+        <v>2.81253770462483E-2</v>
+      </c>
+      <c r="D18">
+        <v>7.4585139362667056E-3</v>
+      </c>
+      <c r="E18">
+        <f>Sheet1!G18*-1</f>
+        <v>2.095142181489291E-3</v>
+      </c>
+      <c r="F18">
+        <v>0.8905272989306845</v>
+      </c>
+      <c r="G18">
+        <v>0.97021485104472627</v>
+      </c>
+      <c r="H18">
+        <v>0.94493089751026971</v>
+      </c>
+      <c r="I18">
+        <v>0.98619768060552926</v>
+      </c>
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18">
+        <v>60</v>
+      </c>
+      <c r="M18">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>5.5603114085719517E-2</v>
+      </c>
+      <c r="C19">
+        <f>Sheet1!E19*-1</f>
+        <v>2.734683666870669E-2</v>
+      </c>
+      <c r="D19">
+        <v>7.5937550990439794E-3</v>
+      </c>
+      <c r="E19">
+        <f>Sheet1!G19*-1</f>
+        <v>1.933572870393031E-3</v>
+      </c>
+      <c r="F19">
+        <v>0.88972368381149536</v>
+      </c>
+      <c r="G19">
+        <v>0.97241554064712166</v>
+      </c>
+      <c r="H19">
+        <v>0.94413392154643883</v>
+      </c>
+      <c r="I19">
+        <v>0.98725710817555923</v>
+      </c>
+      <c r="J19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19">
+        <v>60</v>
+      </c>
+      <c r="M19">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>5.7128164836954112E-2</v>
+      </c>
+      <c r="C20">
+        <f>Sheet1!E20*-1</f>
+        <v>2.806306949072716E-2</v>
+      </c>
+      <c r="D20">
+        <v>7.826555960892179E-3</v>
+      </c>
+      <c r="E20">
+        <f>Sheet1!G20*-1</f>
+        <v>2.0467858126103052E-3</v>
+      </c>
+      <c r="F20">
+        <v>0.89147871075327934</v>
+      </c>
+      <c r="G20">
+        <v>0.97048413112336485</v>
+      </c>
+      <c r="H20">
+        <v>0.94523275174427213</v>
+      </c>
+      <c r="I20">
+        <v>0.98631372564310815</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20">
+        <v>60</v>
+      </c>
+      <c r="M20">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>5.7783027548707157E-2</v>
+      </c>
+      <c r="C21">
+        <f>Sheet1!E21*-1</f>
+        <v>2.762907556827324E-2</v>
+      </c>
+      <c r="D21">
+        <v>7.7356571311851486E-3</v>
+      </c>
+      <c r="E21">
+        <f>Sheet1!G21*-1</f>
+        <v>2.0626532185269489E-3</v>
+      </c>
+      <c r="F21">
+        <v>0.88619560754775384</v>
+      </c>
+      <c r="G21">
+        <v>0.97069435645375357</v>
+      </c>
+      <c r="H21">
+        <v>0.94187824391321795</v>
+      </c>
+      <c r="I21">
+        <v>0.98635275479046858</v>
+      </c>
+      <c r="J21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21">
+        <v>60</v>
+      </c>
+      <c r="M21">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0.11618062085255811</v>
+      </c>
+      <c r="C22">
+        <f>Sheet1!E22*-1</f>
+        <v>0.1001130540039339</v>
+      </c>
+      <c r="D22">
+        <v>2.1154557091451941E-2</v>
+      </c>
+      <c r="E22">
+        <f>Sheet1!G22*-1</f>
+        <v>1.6271935985705938E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.7063474979841049</v>
+      </c>
+      <c r="G22">
+        <v>0.76537731918444729</v>
+      </c>
+      <c r="H22">
+        <v>0.84725645135894123</v>
+      </c>
+      <c r="I22">
+        <v>0.8839769319128512</v>
+      </c>
+      <c r="J22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22">
+        <v>60</v>
+      </c>
+      <c r="M22">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>0.1119216594349134</v>
+      </c>
+      <c r="C23">
+        <f>Sheet1!E23*-1</f>
+        <v>9.8868424634965701E-2</v>
+      </c>
+      <c r="D23">
+        <v>1.9616428161741771E-2</v>
+      </c>
+      <c r="E23">
+        <f>Sheet1!G23*-1</f>
+        <v>1.5881010027148281E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.71207892154546881</v>
+      </c>
+      <c r="G23">
+        <v>0.77423095511228179</v>
+      </c>
+      <c r="H23">
+        <v>0.84761090801531214</v>
+      </c>
+      <c r="I23">
+        <v>0.88902515713776709</v>
+      </c>
+      <c r="J23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23">
+        <v>60</v>
+      </c>
+      <c r="M23">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>0.1144406045485279</v>
+      </c>
+      <c r="C24">
+        <f>Sheet1!E24*-1</f>
+        <v>9.8487997014350598E-2</v>
+      </c>
+      <c r="D24">
+        <v>2.0710467108695861E-2</v>
+      </c>
+      <c r="E24">
+        <f>Sheet1!G24*-1</f>
+        <v>1.5874631706572721E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.69924312945281841</v>
+      </c>
+      <c r="G24">
+        <v>0.77353161095870127</v>
+      </c>
+      <c r="H24">
+        <v>0.84097778467407092</v>
+      </c>
+      <c r="I24">
+        <v>0.88867867020044078</v>
+      </c>
+      <c r="J24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24">
+        <v>60</v>
+      </c>
+      <c r="M24">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>0.1184847432291246</v>
+      </c>
+      <c r="C25">
+        <f>Sheet1!E25*-1</f>
+        <v>9.9311008392194089E-2</v>
+      </c>
+      <c r="D25">
+        <v>2.1848240457609931E-2</v>
+      </c>
+      <c r="E25">
+        <f>Sheet1!G25*-1</f>
+        <v>1.5944088211630791E-2</v>
+      </c>
+      <c r="F25">
+        <v>0.69705714313171385</v>
+      </c>
+      <c r="G25">
+        <v>0.77007676420629978</v>
+      </c>
+      <c r="H25">
+        <v>0.84133688171429299</v>
+      </c>
+      <c r="I25">
+        <v>0.88673120506306868</v>
+      </c>
+      <c r="J25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25">
+        <v>60</v>
+      </c>
+      <c r="M25">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>0.11240204266499559</v>
+      </c>
+      <c r="C26">
+        <f>Sheet1!E26*-1</f>
+        <v>9.7522660709984485E-2</v>
+      </c>
+      <c r="D26">
+        <v>1.9789595021531489E-2</v>
+      </c>
+      <c r="E26">
+        <f>Sheet1!G26*-1</f>
+        <v>1.5484986929231699E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.70886211732133153</v>
+      </c>
+      <c r="G26">
+        <v>0.77999330998041949</v>
+      </c>
+      <c r="H26">
+        <v>0.84552630305842214</v>
+      </c>
+      <c r="I26">
+        <v>0.89196835256895857</v>
+      </c>
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26">
+        <v>60</v>
+      </c>
+      <c r="M26">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0.1608244400637924</v>
+      </c>
+      <c r="C27">
+        <f>Sheet1!E27*-1</f>
+        <v>0.15001447722331829</v>
+      </c>
+      <c r="D27">
+        <v>3.9797766501410661E-2</v>
+      </c>
+      <c r="E27">
+        <f>Sheet1!G27*-1</f>
+        <v>3.446177722080826E-2</v>
+      </c>
+      <c r="F27">
+        <v>0.44755573670195448</v>
+      </c>
+      <c r="G27">
+        <v>0.50310064123180598</v>
+      </c>
+      <c r="H27">
+        <v>0.67270754910298847</v>
+      </c>
+      <c r="I27">
+        <v>0.71448278858590375</v>
+      </c>
+      <c r="J27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27">
+        <v>60</v>
+      </c>
+      <c r="M27">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>0.1540232883052097</v>
+      </c>
+      <c r="C28">
+        <f>Sheet1!E28*-1</f>
+        <v>0.15192076418743089</v>
+      </c>
+      <c r="D28">
+        <v>3.5658952638121993E-2</v>
+      </c>
+      <c r="E28">
+        <f>Sheet1!G28*-1</f>
+        <v>3.5328212273653063E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.47661398826158619</v>
+      </c>
+      <c r="G28">
+        <v>0.49776388724782822</v>
+      </c>
+      <c r="H28">
+        <v>0.69352708633129545</v>
+      </c>
+      <c r="I28">
+        <v>0.71064616359425559</v>
+      </c>
+      <c r="J28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28">
+        <v>60</v>
+      </c>
+      <c r="M28">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>0.156849989343392</v>
+      </c>
+      <c r="C29">
+        <f>Sheet1!E29*-1</f>
+        <v>0.15065168260304829</v>
+      </c>
+      <c r="D29">
+        <v>3.7628184297268739E-2</v>
+      </c>
+      <c r="E29">
+        <f>Sheet1!G29*-1</f>
+        <v>3.4660322357804418E-2</v>
+      </c>
+      <c r="F29">
+        <v>0.45356447567194558</v>
+      </c>
+      <c r="G29">
+        <v>0.50553389123515291</v>
+      </c>
+      <c r="H29">
+        <v>0.67502287457075039</v>
+      </c>
+      <c r="I29">
+        <v>0.71583928900644123</v>
+      </c>
+      <c r="J29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29">
+        <v>60</v>
+      </c>
+      <c r="M29">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>0.16386187680871789</v>
+      </c>
+      <c r="C30">
+        <f>Sheet1!E30*-1</f>
+        <v>0.1496595311237596</v>
+      </c>
+      <c r="D30">
+        <v>3.9683909280670268E-2</v>
+      </c>
+      <c r="E30">
+        <f>Sheet1!G30*-1</f>
+        <v>3.4518164193523333E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.44975171467408498</v>
+      </c>
+      <c r="G30">
+        <v>0.50222754040938922</v>
+      </c>
+      <c r="H30">
+        <v>0.67527873615047929</v>
+      </c>
+      <c r="I30">
+        <v>0.71304574470179105</v>
+      </c>
+      <c r="J30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30">
+        <v>60</v>
+      </c>
+      <c r="M30">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>0.1520228418101929</v>
+      </c>
+      <c r="C31">
+        <f>Sheet1!E31*-1</f>
+        <v>0.1520119143212236</v>
+      </c>
+      <c r="D31">
+        <v>3.5389743928059193E-2</v>
+      </c>
+      <c r="E31">
+        <f>Sheet1!G31*-1</f>
+        <v>3.5144203679752649E-2</v>
+      </c>
+      <c r="F31">
+        <v>0.47935796035516531</v>
+      </c>
+      <c r="G31">
+        <v>0.50068024207625406</v>
+      </c>
+      <c r="H31">
+        <v>0.69489235270994976</v>
+      </c>
+      <c r="I31">
+        <v>0.71324987456922995</v>
+      </c>
+      <c r="J31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31">
+        <v>60</v>
+      </c>
+      <c r="M31">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>4.8961999881739653E-2</v>
+      </c>
+      <c r="C32">
+        <f>Sheet1!E32*-1</f>
+        <v>1.8948282714809341E-2</v>
+      </c>
+      <c r="D32">
+        <v>6.4456932134267291E-3</v>
+      </c>
+      <c r="E32">
+        <f>Sheet1!G32*-1</f>
+        <v>9.3724430254722507E-4</v>
+      </c>
+      <c r="F32">
+        <v>0.90858108154954642</v>
+      </c>
+      <c r="G32">
+        <v>0.98637145187205433</v>
+      </c>
+      <c r="H32">
+        <v>0.95355170211529883</v>
+      </c>
+      <c r="I32">
+        <v>0.99370949670337372</v>
+      </c>
+      <c r="J32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32">
+        <v>60</v>
+      </c>
+      <c r="M32">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>5.0098733426057487E-2</v>
+      </c>
+      <c r="C33">
+        <f>Sheet1!E33*-1</f>
+        <v>1.878644396146429E-2</v>
+      </c>
+      <c r="D33">
+        <v>6.5791205871415879E-3</v>
+      </c>
+      <c r="E33">
+        <f>Sheet1!G33*-1</f>
+        <v>9.2543138791491438E-4</v>
+      </c>
+      <c r="F33">
+        <v>0.90206269203095402</v>
+      </c>
+      <c r="G33">
+        <v>0.98670606764365465</v>
+      </c>
+      <c r="H33">
+        <v>0.95093594720525332</v>
+      </c>
+      <c r="I33">
+        <v>0.99385281007360038</v>
+      </c>
+      <c r="J33" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33">
+        <v>60</v>
+      </c>
+      <c r="M33">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>4.9200074467494803E-2</v>
+      </c>
+      <c r="C34">
+        <f>Sheet1!E34*-1</f>
+        <v>1.905514408976507E-2</v>
+      </c>
+      <c r="D34">
+        <v>6.5309970140628639E-3</v>
+      </c>
+      <c r="E34">
+        <f>Sheet1!G34*-1</f>
+        <v>9.4004805669083375E-4</v>
+      </c>
+      <c r="F34">
+        <v>0.90399384027098661</v>
+      </c>
+      <c r="G34">
+        <v>0.98643908199405383</v>
+      </c>
+      <c r="H34">
+        <v>0.95147899402145097</v>
+      </c>
+      <c r="I34">
+        <v>0.99376231439726581</v>
+      </c>
+      <c r="J34" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34">
+        <v>60</v>
+      </c>
+      <c r="M34">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>4.8725748595642653E-2</v>
+      </c>
+      <c r="C35">
+        <f>Sheet1!E35*-1</f>
+        <v>1.9116492183241761E-2</v>
+      </c>
+      <c r="D35">
+        <v>6.2873283217096659E-3</v>
+      </c>
+      <c r="E35">
+        <f>Sheet1!G35*-1</f>
+        <v>9.5499567060160239E-4</v>
+      </c>
+      <c r="F35">
+        <v>0.91203608708776418</v>
+      </c>
+      <c r="G35">
+        <v>0.98606657045916279</v>
+      </c>
+      <c r="H35">
+        <v>0.95580436291772219</v>
+      </c>
+      <c r="I35">
+        <v>0.99356939832484048</v>
+      </c>
+      <c r="J35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35">
+        <v>60</v>
+      </c>
+      <c r="M35">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>5.256565282792254E-2</v>
+      </c>
+      <c r="C36">
+        <f>Sheet1!E36*-1</f>
+        <v>1.87688706045821E-2</v>
+      </c>
+      <c r="D36">
+        <v>7.0139943699688654E-3</v>
+      </c>
+      <c r="E36">
+        <f>Sheet1!G36*-1</f>
+        <v>9.0999204277528406E-4</v>
+      </c>
+      <c r="F36">
+        <v>0.89688322103745299</v>
+      </c>
+      <c r="G36">
+        <v>0.9868897143716111</v>
+      </c>
+      <c r="H36">
+        <v>0.9474770328332045</v>
+      </c>
+      <c r="I36">
+        <v>0.99394838759234805</v>
+      </c>
+      <c r="J36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36">
+        <v>60</v>
+      </c>
+      <c r="M36">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>9.3170610538651694E-2</v>
+      </c>
+      <c r="C37">
+        <f>Sheet1!E37*-1</f>
+        <v>6.9100252385706787E-2</v>
+      </c>
+      <c r="D37">
+        <v>1.4702237084226509E-2</v>
+      </c>
+      <c r="E37">
+        <f>Sheet1!G37*-1</f>
+        <v>7.9212532512577399E-3</v>
+      </c>
+      <c r="F37">
+        <v>0.79147896610369506</v>
+      </c>
+      <c r="G37">
+        <v>0.88481639112127586</v>
+      </c>
+      <c r="H37">
+        <v>0.89153490711947492</v>
+      </c>
+      <c r="I37">
+        <v>0.94611137877030371</v>
+      </c>
+      <c r="J37" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37">
+        <v>60</v>
+      </c>
+      <c r="M37">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>8.8758821336634361E-2</v>
+      </c>
+      <c r="C38">
+        <f>Sheet1!E38*-1</f>
+        <v>6.8346429210649207E-2</v>
+      </c>
+      <c r="D38">
+        <v>1.35326266105096E-2</v>
+      </c>
+      <c r="E38">
+        <f>Sheet1!G38*-1</f>
+        <v>7.7770170684847246E-3</v>
+      </c>
+      <c r="F38">
+        <v>0.79855225292968746</v>
+      </c>
+      <c r="G38">
+        <v>0.88828222146698455</v>
+      </c>
+      <c r="H38">
+        <v>0.89479451485588835</v>
+      </c>
+      <c r="I38">
+        <v>0.94770894875328981</v>
+      </c>
+      <c r="J38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38">
+        <v>60</v>
+      </c>
+      <c r="M38">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>9.3793263249468586E-2</v>
+      </c>
+      <c r="C39">
+        <f>Sheet1!E39*-1</f>
+        <v>7.2943493679936008E-2</v>
+      </c>
+      <c r="D39">
+        <v>1.436297559981845E-2</v>
+      </c>
+      <c r="E39">
+        <f>Sheet1!G39*-1</f>
+        <v>8.834217050600732E-3</v>
+      </c>
+      <c r="F39">
+        <v>0.78886315111599292</v>
+      </c>
+      <c r="G39">
+        <v>0.87255960775915031</v>
+      </c>
+      <c r="H39">
+        <v>0.89056185890252881</v>
+      </c>
+      <c r="I39">
+        <v>0.93985971256962575</v>
+      </c>
+      <c r="J39" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39">
+        <v>60</v>
+      </c>
+      <c r="M39">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>8.8671450659072878E-2</v>
+      </c>
+      <c r="C40">
+        <f>Sheet1!E40*-1</f>
+        <v>6.8687078779028285E-2</v>
+      </c>
+      <c r="D40">
+        <v>1.330977500452479E-2</v>
+      </c>
+      <c r="E40">
+        <f>Sheet1!G40*-1</f>
+        <v>7.8221331609645683E-3</v>
+      </c>
+      <c r="F40">
+        <v>0.81378737844230953</v>
+      </c>
+      <c r="G40">
+        <v>0.88587472738102824</v>
+      </c>
+      <c r="H40">
+        <v>0.90503058888227739</v>
+      </c>
+      <c r="I40">
+        <v>0.9465723306638516</v>
+      </c>
+      <c r="J40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40">
+        <v>60</v>
+      </c>
+      <c r="M40">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>9.3854424551369955E-2</v>
+      </c>
+      <c r="C41">
+        <f>Sheet1!E41*-1</f>
+        <v>6.8679885963086482E-2</v>
+      </c>
+      <c r="D41">
+        <v>1.4795648692589669E-2</v>
+      </c>
+      <c r="E41">
+        <f>Sheet1!G41*-1</f>
+        <v>7.8546488051149058E-3</v>
+      </c>
+      <c r="F41">
+        <v>0.78248063009950219</v>
+      </c>
+      <c r="G41">
+        <v>0.88683781340363921</v>
+      </c>
+      <c r="H41">
+        <v>0.88574734107977571</v>
+      </c>
+      <c r="I41">
+        <v>0.94704260495537707</v>
+      </c>
+      <c r="J41" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41">
+        <v>60</v>
+      </c>
+      <c r="M41">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0.15879346927003879</v>
+      </c>
+      <c r="C42">
+        <f>Sheet1!E42*-1</f>
+        <v>0.14604289166640641</v>
+      </c>
+      <c r="D42">
+        <v>3.857467748985647E-2</v>
+      </c>
+      <c r="E42">
+        <f>Sheet1!G42*-1</f>
+        <v>3.2886505864000833E-2</v>
+      </c>
+      <c r="F42">
+        <v>0.45289743415775108</v>
+      </c>
+      <c r="G42">
+        <v>0.52179455590244095</v>
+      </c>
+      <c r="H42">
+        <v>0.67581615075671175</v>
+      </c>
+      <c r="I42">
+        <v>0.72805757396479032</v>
+      </c>
+      <c r="J42" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42">
+        <v>60</v>
+      </c>
+      <c r="M42">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>0.15414460600215329</v>
+      </c>
+      <c r="C43">
+        <f>Sheet1!E43*-1</f>
+        <v>0.14646564509075419</v>
+      </c>
+      <c r="D43">
+        <v>3.6630436144502523E-2</v>
+      </c>
+      <c r="E43">
+        <f>Sheet1!G43*-1</f>
+        <v>3.3171872415085478E-2</v>
+      </c>
+      <c r="F43">
+        <v>0.45471643843462978</v>
+      </c>
+      <c r="G43">
+        <v>0.52348209302361481</v>
+      </c>
+      <c r="H43">
+        <v>0.67524361801614874</v>
+      </c>
+      <c r="I43">
+        <v>0.72817956577512488</v>
+      </c>
+      <c r="J43" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43">
+        <v>60</v>
+      </c>
+      <c r="M43">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>0.15370724396408181</v>
+      </c>
+      <c r="C44">
+        <f>Sheet1!E44*-1</f>
+        <v>0.14728922168918029</v>
+      </c>
+      <c r="D44">
+        <v>3.603963955397927E-2</v>
+      </c>
+      <c r="E44">
+        <f>Sheet1!G44*-1</f>
+        <v>3.3357974500593517E-2</v>
+      </c>
+      <c r="F44">
+        <v>0.47021451944548392</v>
+      </c>
+      <c r="G44">
+        <v>0.51878549843567434</v>
+      </c>
+      <c r="H44">
+        <v>0.68823214403472477</v>
+      </c>
+      <c r="I44">
+        <v>0.72399290510409198</v>
+      </c>
+      <c r="J44" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44">
+        <v>60</v>
+      </c>
+      <c r="M44">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>0.15528235333621579</v>
+      </c>
+      <c r="C45">
+        <f>Sheet1!E45*-1</f>
+        <v>0.14677048259597561</v>
+      </c>
+      <c r="D45">
+        <v>3.6512086783561513E-2</v>
+      </c>
+      <c r="E45">
+        <f>Sheet1!G45*-1</f>
+        <v>3.3215134182533738E-2</v>
+      </c>
+      <c r="F45">
+        <v>0.48917157531231742</v>
+      </c>
+      <c r="G45">
+        <v>0.51538970691852148</v>
+      </c>
+      <c r="H45">
+        <v>0.70322877235909631</v>
+      </c>
+      <c r="I45">
+        <v>0.72296514165803838</v>
+      </c>
+      <c r="J45" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45">
+        <v>60</v>
+      </c>
+      <c r="M45">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>0.15241622672835931</v>
+      </c>
+      <c r="C46">
+        <f>Sheet1!E46*-1</f>
+        <v>0.14764409693625091</v>
+      </c>
+      <c r="D46">
+        <v>3.4531803459238397E-2</v>
+      </c>
+      <c r="E46">
+        <f>Sheet1!G46*-1</f>
+        <v>3.336902608381604E-2</v>
+      </c>
+      <c r="F46">
+        <v>0.49232802927097169</v>
+      </c>
+      <c r="G46">
+        <v>0.51925133129101353</v>
+      </c>
+      <c r="H46">
+        <v>0.70599752052943621</v>
+      </c>
+      <c r="I46">
+        <v>0.72645604984432421</v>
+      </c>
+      <c r="J46" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46">
+        <v>60</v>
+      </c>
+      <c r="M46">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>4.8699034482758877E-2</v>
+      </c>
+      <c r="C47">
+        <f>Sheet1!E47*-1</f>
+        <v>1.8594465275701379E-2</v>
+      </c>
+      <c r="D47">
+        <v>6.7051891874752249E-3</v>
+      </c>
+      <c r="E47">
+        <f>Sheet1!G47*-1</f>
+        <v>9.3606113627871864E-4</v>
+      </c>
+      <c r="F47">
+        <v>0.90632943209293804</v>
+      </c>
+      <c r="G47">
+        <v>0.98648540280728103</v>
+      </c>
+      <c r="H47">
+        <v>0.95248053945198952</v>
+      </c>
+      <c r="I47">
+        <v>0.9936852258153388</v>
+      </c>
+      <c r="J47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47">
+        <v>60</v>
+      </c>
+      <c r="M47">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>5.0229440316533133E-2</v>
+      </c>
+      <c r="C48">
+        <f>Sheet1!E48*-1</f>
+        <v>1.833762858440751E-2</v>
+      </c>
+      <c r="D48">
+        <v>6.47210711223257E-3</v>
+      </c>
+      <c r="E48">
+        <f>Sheet1!G48*-1</f>
+        <v>9.4175544371471749E-4</v>
+      </c>
+      <c r="F48">
+        <v>0.90475808048937212</v>
+      </c>
+      <c r="G48">
+        <v>0.98657970475827839</v>
+      </c>
+      <c r="H48">
+        <v>0.95220359165265112</v>
+      </c>
+      <c r="I48">
+        <v>0.99371408899110669</v>
+      </c>
+      <c r="J48" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48" t="s">
+        <v>21</v>
+      </c>
+      <c r="L48">
+        <v>60</v>
+      </c>
+      <c r="M48">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>4.9330266154448063E-2</v>
+      </c>
+      <c r="C49">
+        <f>Sheet1!E49*-1</f>
+        <v>1.8415920603980489E-2</v>
+      </c>
+      <c r="D49">
+        <v>6.4085287583716078E-3</v>
+      </c>
+      <c r="E49">
+        <f>Sheet1!G49*-1</f>
+        <v>9.260364530263484E-4</v>
+      </c>
+      <c r="F49">
+        <v>0.9053161170591788</v>
+      </c>
+      <c r="G49">
+        <v>0.98680282624480686</v>
+      </c>
+      <c r="H49">
+        <v>0.95211603841766168</v>
+      </c>
+      <c r="I49">
+        <v>0.9938455204701464</v>
+      </c>
+      <c r="J49" t="s">
+        <v>15</v>
+      </c>
+      <c r="K49" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49">
+        <v>60</v>
+      </c>
+      <c r="M49">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>4.8960272365485308E-2</v>
+      </c>
+      <c r="C50">
+        <f>Sheet1!E50*-1</f>
+        <v>1.8516269629067789E-2</v>
+      </c>
+      <c r="D50">
+        <v>6.722989293694805E-3</v>
+      </c>
+      <c r="E50">
+        <f>Sheet1!G50*-1</f>
+        <v>9.1434677465565377E-4</v>
+      </c>
+      <c r="F50">
+        <v>0.90719386556962855</v>
+      </c>
+      <c r="G50">
+        <v>0.98675937273798819</v>
+      </c>
+      <c r="H50">
+        <v>0.95381554582277883</v>
+      </c>
+      <c r="I50">
+        <v>0.99383032908580515</v>
+      </c>
+      <c r="J50" t="s">
+        <v>15</v>
+      </c>
+      <c r="K50" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50">
+        <v>60</v>
+      </c>
+      <c r="M50">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>5.154360378183187E-2</v>
+      </c>
+      <c r="C51">
+        <f>Sheet1!E51*-1</f>
+        <v>1.837452059363049E-2</v>
+      </c>
+      <c r="D51">
+        <v>7.0431169094894008E-3</v>
+      </c>
+      <c r="E51">
+        <f>Sheet1!G51*-1</f>
+        <v>9.349466679435584E-4</v>
+      </c>
+      <c r="F51">
+        <v>0.89735874776626667</v>
+      </c>
+      <c r="G51">
+        <v>0.9866471210751131</v>
+      </c>
+      <c r="H51">
+        <v>0.94757273461090041</v>
+      </c>
+      <c r="I51">
+        <v>0.99376423687693494</v>
+      </c>
+      <c r="J51" t="s">
+        <v>15</v>
+      </c>
+      <c r="K51" t="s">
+        <v>21</v>
+      </c>
+      <c r="L51">
+        <v>60</v>
+      </c>
+      <c r="M51">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>0.1381825469912126</v>
+      </c>
+      <c r="C52">
+        <f>Sheet1!E52*-1</f>
+        <v>0.12320885402752139</v>
+      </c>
+      <c r="D52">
+        <v>2.8721634880137809E-2</v>
+      </c>
+      <c r="E52">
+        <f>Sheet1!G52*-1</f>
+        <v>2.265401502278036E-2</v>
+      </c>
+      <c r="F52">
+        <v>0.59876272313580725</v>
+      </c>
+      <c r="G52">
+        <v>0.67292746599029962</v>
+      </c>
+      <c r="H52">
+        <v>0.77826721183271619</v>
+      </c>
+      <c r="I52">
+        <v>0.83144213224588426</v>
+      </c>
+      <c r="J52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52">
+        <v>60</v>
+      </c>
+      <c r="M52">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>0.13286126286328881</v>
+      </c>
+      <c r="C53">
+        <f>Sheet1!E53*-1</f>
+        <v>0.1237368678465863</v>
+      </c>
+      <c r="D53">
+        <v>2.6049661500428211E-2</v>
+      </c>
+      <c r="E53">
+        <f>Sheet1!G53*-1</f>
+        <v>2.278508252999966E-2</v>
+      </c>
+      <c r="F53">
+        <v>0.61665965644887932</v>
+      </c>
+      <c r="G53">
+        <v>0.67530579546910585</v>
+      </c>
+      <c r="H53">
+        <v>0.79098471486655964</v>
+      </c>
+      <c r="I53">
+        <v>0.83247229447324922</v>
+      </c>
+      <c r="J53" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53">
+        <v>60</v>
+      </c>
+      <c r="M53">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>0.13097057460793191</v>
+      </c>
+      <c r="C54">
+        <f>Sheet1!E54*-1</f>
+        <v>0.1240935791968764</v>
+      </c>
+      <c r="D54">
+        <v>2.538218851671643E-2</v>
+      </c>
+      <c r="E54">
+        <f>Sheet1!G54*-1</f>
+        <v>2.2816187316602291E-2</v>
+      </c>
+      <c r="F54">
+        <v>0.6249865988103479</v>
+      </c>
+      <c r="G54">
+        <v>0.6748408904809422</v>
+      </c>
+      <c r="H54">
+        <v>0.79567657411279158</v>
+      </c>
+      <c r="I54">
+        <v>0.83237004891404487</v>
+      </c>
+      <c r="J54" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54">
+        <v>60</v>
+      </c>
+      <c r="M54">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>0.13661291351317481</v>
+      </c>
+      <c r="C55">
+        <f>Sheet1!E55*-1</f>
+        <v>0.1244292551646231</v>
+      </c>
+      <c r="D55">
+        <v>2.7054997323224871E-2</v>
+      </c>
+      <c r="E55">
+        <f>Sheet1!G55*-1</f>
+        <v>2.2983766966818361E-2</v>
+      </c>
+      <c r="F55">
+        <v>0.62652480780426345</v>
+      </c>
+      <c r="G55">
+        <v>0.66717278398101354</v>
+      </c>
+      <c r="H55">
+        <v>0.80103599172348594</v>
+      </c>
+      <c r="I55">
+        <v>0.82817585558440143</v>
+      </c>
+      <c r="J55" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55">
+        <v>60</v>
+      </c>
+      <c r="M55">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>0.1345842015523942</v>
+      </c>
+      <c r="C56">
+        <f>Sheet1!E56*-1</f>
+        <v>0.1230440473376912</v>
+      </c>
+      <c r="D56">
+        <v>2.6796005712854652E-2</v>
+      </c>
+      <c r="E56">
+        <f>Sheet1!G56*-1</f>
+        <v>2.2598951360973649E-2</v>
+      </c>
+      <c r="F56">
+        <v>0.60949454388240953</v>
+      </c>
+      <c r="G56">
+        <v>0.67724248697926237</v>
+      </c>
+      <c r="H56">
+        <v>0.788759475544203</v>
+      </c>
+      <c r="I56">
+        <v>0.83349099731980947</v>
+      </c>
+      <c r="J56" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" t="s">
+        <v>21</v>
+      </c>
+      <c r="L56">
+        <v>60</v>
+      </c>
+      <c r="M56">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>0.12489602425349761</v>
+      </c>
+      <c r="C57">
+        <f>Sheet1!E57*-1</f>
+        <v>8.8393754399190227E-2</v>
+      </c>
+      <c r="D57">
+        <v>2.567051047184124E-2</v>
+      </c>
+      <c r="E57">
+        <f>Sheet1!G57*-1</f>
+        <v>9.127024290502217E-3</v>
+      </c>
+      <c r="F57">
+        <v>0.64138651018928705</v>
+      </c>
+      <c r="G57">
+        <v>0.86822649496520587</v>
+      </c>
+      <c r="H57">
+        <v>0.80757709065790506</v>
+      </c>
+      <c r="I57">
+        <v>0.93876493349973056</v>
+      </c>
+      <c r="J57" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57">
+        <v>60</v>
+      </c>
+      <c r="M57">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>0.12698705242194711</v>
+      </c>
+      <c r="C58">
+        <f>Sheet1!E58*-1</f>
+        <v>8.8738127290471286E-2</v>
+      </c>
+      <c r="D58">
+        <v>2.7384162103605749E-2</v>
+      </c>
+      <c r="E58">
+        <f>Sheet1!G58*-1</f>
+        <v>9.1836421889758355E-3</v>
+      </c>
+      <c r="F58">
+        <v>0.59702147728548227</v>
+      </c>
+      <c r="G58">
+        <v>0.86913036670726018</v>
+      </c>
+      <c r="H58">
+        <v>0.78830116636484571</v>
+      </c>
+      <c r="I58">
+        <v>0.93961329723583187</v>
+      </c>
+      <c r="J58" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" t="s">
+        <v>21</v>
+      </c>
+      <c r="L58">
+        <v>60</v>
+      </c>
+      <c r="M58">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>0.12741373508680601</v>
+      </c>
+      <c r="C59">
+        <f>Sheet1!E59*-1</f>
+        <v>8.9084769259286697E-2</v>
+      </c>
+      <c r="D59">
+        <v>2.8758128977677329E-2</v>
+      </c>
+      <c r="E59">
+        <f>Sheet1!G59*-1</f>
+        <v>9.2448323256477793E-3</v>
+      </c>
+      <c r="F59">
+        <v>0.57510820027726162</v>
+      </c>
+      <c r="G59">
+        <v>0.86824961572465376</v>
+      </c>
+      <c r="H59">
+        <v>0.78063299971328004</v>
+      </c>
+      <c r="I59">
+        <v>0.93893552687006654</v>
+      </c>
+      <c r="J59" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" t="s">
+        <v>21</v>
+      </c>
+      <c r="L59">
+        <v>60</v>
+      </c>
+      <c r="M59">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>0.1257348919267586</v>
+      </c>
+      <c r="C60">
+        <f>Sheet1!E60*-1</f>
+        <v>8.9413293100103208E-2</v>
+      </c>
+      <c r="D60">
+        <v>2.7761064572433901E-2</v>
+      </c>
+      <c r="E60">
+        <f>Sheet1!G60*-1</f>
+        <v>9.3082994510645476E-3</v>
+      </c>
+      <c r="F60">
+        <v>0.61677804647765666</v>
+      </c>
+      <c r="G60">
+        <v>0.86520680458335952</v>
+      </c>
+      <c r="H60">
+        <v>0.79616560005689707</v>
+      </c>
+      <c r="I60">
+        <v>0.93684103304676081</v>
+      </c>
+      <c r="J60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" t="s">
+        <v>21</v>
+      </c>
+      <c r="L60">
+        <v>60</v>
+      </c>
+      <c r="M60">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>0.1287001788290357</v>
+      </c>
+      <c r="C61">
+        <f>Sheet1!E61*-1</f>
+        <v>8.8993400307022727E-2</v>
+      </c>
+      <c r="D61">
+        <v>2.98105679259748E-2</v>
+      </c>
+      <c r="E61">
+        <f>Sheet1!G61*-1</f>
+        <v>9.2120436700182211E-3</v>
+      </c>
+      <c r="F61">
+        <v>0.5655625114502546</v>
+      </c>
+      <c r="G61">
+        <v>0.86843388185223258</v>
+      </c>
+      <c r="H61">
+        <v>0.76902087457538393</v>
+      </c>
+      <c r="I61">
+        <v>0.93876299268268171</v>
+      </c>
+      <c r="J61" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" t="s">
+        <v>21</v>
+      </c>
+      <c r="L61">
+        <v>60</v>
+      </c>
+      <c r="M61">
         <v>8519</v>
       </c>
     </row>
